--- a/Project Management/PM_IssueLog.xlsx
+++ b/Project Management/PM_IssueLog.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Quality Assurance\Internal-Banking-System\Project Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="8244"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Issue Log" sheetId="1" r:id="rId4"/>
+    <sheet name="Issue Log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue </t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Reported By</t>
-  </si>
-  <si>
-    <t>Assigned to</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Status</t>
   </si>
@@ -37,95 +30,200 @@
     <t>Date Reported</t>
   </si>
   <si>
-    <t>Date Resolved</t>
+    <t>Resolution</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t xml:space="preserve">SIQ need to be updated according to 
+readablity. </t>
   </si>
   <si>
-    <t>Resolution</t>
+    <t>Release strategy not created.</t>
+  </si>
+  <si>
+    <t>Branch strategy not created.</t>
+  </si>
+  <si>
+    <t>SRS is not detailed as needed.</t>
+  </si>
+  <si>
+    <t>Issue Description</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Sohila Abdalla</t>
+  </si>
+  <si>
+    <t>internal change management not mentioned
+well in PM.</t>
+  </si>
+  <si>
+    <t>Sara Hassan</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Aya Mostafa (PM)</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>fine tuned siq document and resended to 
+customer to confirmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -315,94 +413,136 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.75"/>
-    <col customWidth="1" min="2" max="2" width="23.5"/>
-    <col customWidth="1" min="3" max="3" width="35.63"/>
-    <col customWidth="1" min="4" max="4" width="17.88"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:61" s="5" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+    </row>
+    <row r="3" spans="1:61" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -412,11 +552,17 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -426,11 +572,17 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -440,11 +592,17 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:61" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -454,10 +612,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -468,10 +628,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -482,10 +644,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -496,10 +660,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -510,10 +676,12 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -524,10 +692,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -538,10 +706,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -552,10 +720,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -566,10 +734,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -580,7 +748,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -594,7 +762,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -608,7 +776,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -622,7 +790,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -636,7 +804,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -650,7 +818,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -664,7 +832,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -678,7 +846,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -692,7 +860,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -706,7 +874,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -720,7 +888,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -734,7 +902,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -748,7 +916,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -762,7 +930,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -776,7 +944,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -790,7 +958,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -804,7 +972,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -818,7 +986,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -832,7 +1000,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -846,7 +1014,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -860,7 +1028,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -874,7 +1042,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -888,7 +1056,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -902,7 +1070,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -916,7 +1084,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -930,7 +1098,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -944,7 +1112,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -958,7 +1126,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -972,7 +1140,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -986,7 +1154,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1000,7 +1168,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1014,7 +1182,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1028,7 +1196,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1042,7 +1210,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1056,7 +1224,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1070,7 +1238,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1084,7 +1252,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1098,7 +1266,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1112,7 +1280,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1126,7 +1294,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1140,7 +1308,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1154,7 +1322,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1168,7 +1336,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1182,7 +1350,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1196,7 +1364,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1210,7 +1378,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1224,7 +1392,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1238,7 +1406,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1252,7 +1420,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1266,7 +1434,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1280,7 +1448,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1294,7 +1462,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1308,7 +1476,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1322,7 +1490,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1336,7 +1504,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1350,7 +1518,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1364,7 +1532,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1378,7 +1546,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1392,7 +1560,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1406,7 +1574,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1420,7 +1588,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1434,7 +1602,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1448,7 +1616,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1462,7 +1630,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1476,7 +1644,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1490,7 +1658,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1504,7 +1672,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1518,7 +1686,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1532,7 +1700,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1546,7 +1714,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1560,7 +1728,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1574,7 +1742,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1588,7 +1756,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1602,7 +1770,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1616,7 +1784,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1630,7 +1798,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1644,7 +1812,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1658,7 +1826,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1672,7 +1840,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1686,7 +1854,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1700,7 +1868,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1714,7 +1882,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1728,7 +1896,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1742,7 +1910,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1756,7 +1924,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1770,7 +1938,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1784,7 +1952,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1798,7 +1966,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1812,7 +1980,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1826,7 +1994,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1840,7 +2008,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1854,7 +2022,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1868,7 +2036,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1882,7 +2050,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1896,7 +2064,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1910,7 +2078,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1924,7 +2092,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1938,7 +2106,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1952,7 +2120,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1966,7 +2134,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1980,7 +2148,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1994,7 +2162,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2008,7 +2176,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2022,7 +2190,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2036,7 +2204,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2050,7 +2218,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2064,7 +2232,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2078,7 +2246,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2092,7 +2260,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2106,7 +2274,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2120,7 +2288,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2134,7 +2302,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2148,7 +2316,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2162,7 +2330,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2176,7 +2344,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2190,7 +2358,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2204,7 +2372,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2218,7 +2386,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2232,7 +2400,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2246,7 +2414,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2260,7 +2428,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2274,7 +2442,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2288,7 +2456,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2302,7 +2470,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2316,7 +2484,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2330,7 +2498,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2344,7 +2512,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2358,7 +2526,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2372,7 +2540,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2386,7 +2554,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2400,7 +2568,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2414,7 +2582,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2428,7 +2596,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2442,7 +2610,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2456,7 +2624,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2470,7 +2638,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2484,7 +2652,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2498,7 +2666,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2512,7 +2680,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2526,7 +2694,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2540,7 +2708,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2554,7 +2722,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2568,7 +2736,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2582,7 +2750,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2596,7 +2764,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2610,7 +2778,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2624,7 +2792,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2638,7 +2806,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2652,7 +2820,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2666,7 +2834,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2680,7 +2848,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2694,7 +2862,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2708,7 +2876,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2722,7 +2890,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2736,7 +2904,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2750,7 +2918,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2764,7 +2932,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2778,7 +2946,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2792,7 +2960,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2806,7 +2974,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2820,7 +2988,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2834,7 +3002,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2848,7 +3016,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2862,7 +3030,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2876,7 +3044,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2890,7 +3058,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2904,7 +3072,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2918,7 +3086,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2932,7 +3100,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2946,7 +3114,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2960,7 +3128,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2974,7 +3142,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2988,7 +3156,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3002,7 +3170,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3016,7 +3184,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3030,7 +3198,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3044,7 +3212,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3058,7 +3226,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3072,7 +3240,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3086,7 +3254,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3100,7 +3268,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3114,7 +3282,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3128,7 +3296,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3142,7 +3310,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3156,7 +3324,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3170,7 +3338,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3184,7 +3352,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3198,7 +3366,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3212,7 +3380,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3226,7 +3394,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3240,7 +3408,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3254,7 +3422,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3268,7 +3436,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3282,7 +3450,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3296,7 +3464,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3310,7 +3478,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3324,7 +3492,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3338,7 +3506,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3352,7 +3520,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3366,7 +3534,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3380,7 +3548,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3394,7 +3562,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3408,7 +3576,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3422,7 +3590,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3436,7 +3604,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3450,7 +3618,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3464,7 +3632,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3478,7 +3646,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3492,7 +3660,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3506,7 +3674,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3520,7 +3688,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3534,7 +3702,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3548,7 +3716,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3562,7 +3730,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3576,7 +3744,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3590,7 +3758,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3604,7 +3772,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3618,7 +3786,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3632,7 +3800,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3646,7 +3814,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3660,7 +3828,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3674,7 +3842,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3688,7 +3856,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3702,7 +3870,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3716,7 +3884,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3730,7 +3898,7 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3744,7 +3912,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3758,7 +3926,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3772,7 +3940,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3786,7 +3954,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3800,7 +3968,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3814,7 +3982,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3828,7 +3996,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3842,7 +4010,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3856,7 +4024,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3870,7 +4038,7 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3884,7 +4052,7 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3898,7 +4066,7 @@
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3912,7 +4080,7 @@
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3926,7 +4094,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3940,7 +4108,7 @@
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3954,7 +4122,7 @@
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3968,7 +4136,7 @@
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3982,7 +4150,7 @@
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3996,7 +4164,7 @@
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4010,7 +4178,7 @@
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4024,7 +4192,7 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4038,7 +4206,7 @@
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4052,7 +4220,7 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4066,7 +4234,7 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4080,7 +4248,7 @@
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4094,7 +4262,7 @@
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4108,7 +4276,7 @@
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4122,7 +4290,7 @@
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4136,7 +4304,7 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4150,7 +4318,7 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4164,7 +4332,7 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4178,7 +4346,7 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4192,7 +4360,7 @@
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4206,7 +4374,7 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4220,7 +4388,7 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4234,7 +4402,7 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4248,7 +4416,7 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4262,7 +4430,7 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4276,7 +4444,7 @@
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4290,7 +4458,7 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4304,7 +4472,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4318,7 +4486,7 @@
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4332,7 +4500,7 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -4346,7 +4514,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4360,7 +4528,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4374,7 +4542,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4388,7 +4556,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4402,7 +4570,7 @@
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4416,7 +4584,7 @@
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4430,7 +4598,7 @@
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4444,7 +4612,7 @@
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4458,7 +4626,7 @@
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4472,7 +4640,7 @@
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4486,7 +4654,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4500,7 +4668,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4514,7 +4682,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4528,7 +4696,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -4542,7 +4710,7 @@
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4556,7 +4724,7 @@
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -4570,7 +4738,7 @@
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4584,7 +4752,7 @@
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4598,7 +4766,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -4612,7 +4780,7 @@
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -4626,7 +4794,7 @@
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -4640,7 +4808,7 @@
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -4654,7 +4822,7 @@
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -4668,7 +4836,7 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -4682,7 +4850,7 @@
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -4696,7 +4864,7 @@
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -4710,7 +4878,7 @@
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -4724,7 +4892,7 @@
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -4738,7 +4906,7 @@
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -4752,7 +4920,7 @@
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -4766,7 +4934,7 @@
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -4780,7 +4948,7 @@
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -4794,7 +4962,7 @@
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -4808,7 +4976,7 @@
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -4822,7 +4990,7 @@
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -4836,7 +5004,7 @@
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -4850,7 +5018,7 @@
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -4864,7 +5032,7 @@
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -4878,7 +5046,7 @@
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -4892,7 +5060,7 @@
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -4906,7 +5074,7 @@
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -4920,7 +5088,7 @@
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -4934,7 +5102,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -4948,7 +5116,7 @@
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -4962,7 +5130,7 @@
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -4976,7 +5144,7 @@
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -4990,7 +5158,7 @@
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5004,7 +5172,7 @@
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5018,7 +5186,7 @@
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5032,7 +5200,7 @@
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5046,7 +5214,7 @@
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5060,7 +5228,7 @@
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5074,7 +5242,7 @@
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5088,7 +5256,7 @@
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5102,7 +5270,7 @@
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5116,7 +5284,7 @@
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5130,7 +5298,7 @@
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5144,7 +5312,7 @@
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5158,7 +5326,7 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5172,7 +5340,7 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5186,7 +5354,7 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5200,7 +5368,7 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5214,7 +5382,7 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5228,7 +5396,7 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5242,7 +5410,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5256,7 +5424,7 @@
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5270,7 +5438,7 @@
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5284,7 +5452,7 @@
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5298,7 +5466,7 @@
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5312,7 +5480,7 @@
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5326,7 +5494,7 @@
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5340,7 +5508,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -5354,7 +5522,7 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -5368,7 +5536,7 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -5382,7 +5550,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -5396,7 +5564,7 @@
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -5410,7 +5578,7 @@
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -5424,7 +5592,7 @@
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -5438,7 +5606,7 @@
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -5452,7 +5620,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -5466,7 +5634,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -5480,7 +5648,7 @@
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -5494,7 +5662,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -5508,7 +5676,7 @@
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -5522,7 +5690,7 @@
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -5536,7 +5704,7 @@
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -5550,7 +5718,7 @@
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -5564,7 +5732,7 @@
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -5578,7 +5746,7 @@
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -5592,7 +5760,7 @@
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -5606,7 +5774,7 @@
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -5620,7 +5788,7 @@
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -5634,7 +5802,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -5648,7 +5816,7 @@
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -5662,7 +5830,7 @@
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -5676,7 +5844,7 @@
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -5690,7 +5858,7 @@
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -5704,7 +5872,7 @@
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -5718,7 +5886,7 @@
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -5732,7 +5900,7 @@
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5746,7 +5914,7 @@
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5760,7 +5928,7 @@
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5774,7 +5942,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -5788,7 +5956,7 @@
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -5802,7 +5970,7 @@
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5816,7 +5984,7 @@
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5830,7 +5998,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -5844,7 +6012,7 @@
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -5858,7 +6026,7 @@
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -5872,7 +6040,7 @@
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -5886,7 +6054,7 @@
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -5900,7 +6068,7 @@
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -5914,7 +6082,7 @@
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -5928,7 +6096,7 @@
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -5942,7 +6110,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -5956,7 +6124,7 @@
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -5970,7 +6138,7 @@
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -5984,7 +6152,7 @@
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -5998,7 +6166,7 @@
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6012,7 +6180,7 @@
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -6026,7 +6194,7 @@
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -6040,7 +6208,7 @@
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6054,7 +6222,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6068,7 +6236,7 @@
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6082,7 +6250,7 @@
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6096,7 +6264,7 @@
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6110,7 +6278,7 @@
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6124,7 +6292,7 @@
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6138,7 +6306,7 @@
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6152,7 +6320,7 @@
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6166,7 +6334,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6180,7 +6348,7 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6194,7 +6362,7 @@
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6208,7 +6376,7 @@
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6222,7 +6390,7 @@
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6236,7 +6404,7 @@
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6250,7 +6418,7 @@
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6264,7 +6432,7 @@
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6278,7 +6446,7 @@
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6292,7 +6460,7 @@
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6306,7 +6474,7 @@
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6320,7 +6488,7 @@
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6334,7 +6502,7 @@
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6348,7 +6516,7 @@
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -6362,7 +6530,7 @@
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -6376,7 +6544,7 @@
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -6390,7 +6558,7 @@
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -6404,7 +6572,7 @@
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -6418,7 +6586,7 @@
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -6432,7 +6600,7 @@
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -6446,7 +6614,7 @@
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -6460,7 +6628,7 @@
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -6474,7 +6642,7 @@
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -6488,7 +6656,7 @@
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -6502,7 +6670,7 @@
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -6516,7 +6684,7 @@
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -6530,7 +6698,7 @@
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -6544,7 +6712,7 @@
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -6558,7 +6726,7 @@
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -6572,7 +6740,7 @@
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -6586,7 +6754,7 @@
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6600,7 +6768,7 @@
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -6614,7 +6782,7 @@
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -6628,7 +6796,7 @@
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -6642,7 +6810,7 @@
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -6656,7 +6824,7 @@
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -6670,7 +6838,7 @@
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -6684,7 +6852,7 @@
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -6698,7 +6866,7 @@
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -6712,7 +6880,7 @@
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -6726,7 +6894,7 @@
       <c r="K455" s="1"/>
       <c r="L455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -6740,7 +6908,7 @@
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -6754,7 +6922,7 @@
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -6768,7 +6936,7 @@
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -6782,7 +6950,7 @@
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -6796,7 +6964,7 @@
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -6810,7 +6978,7 @@
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -6824,7 +6992,7 @@
       <c r="K462" s="1"/>
       <c r="L462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -6838,7 +7006,7 @@
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -6852,7 +7020,7 @@
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -6866,7 +7034,7 @@
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -6880,7 +7048,7 @@
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -6894,7 +7062,7 @@
       <c r="K467" s="1"/>
       <c r="L467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -6908,7 +7076,7 @@
       <c r="K468" s="1"/>
       <c r="L468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -6922,7 +7090,7 @@
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -6936,7 +7104,7 @@
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -6950,7 +7118,7 @@
       <c r="K471" s="1"/>
       <c r="L471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -6964,7 +7132,7 @@
       <c r="K472" s="1"/>
       <c r="L472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -6978,7 +7146,7 @@
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -6992,7 +7160,7 @@
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7006,7 +7174,7 @@
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7020,7 +7188,7 @@
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -7034,7 +7202,7 @@
       <c r="K477" s="1"/>
       <c r="L477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -7048,7 +7216,7 @@
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -7062,7 +7230,7 @@
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -7076,7 +7244,7 @@
       <c r="K480" s="1"/>
       <c r="L480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7090,7 +7258,7 @@
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -7104,7 +7272,7 @@
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -7118,7 +7286,7 @@
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -7132,7 +7300,7 @@
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -7146,7 +7314,7 @@
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -7160,7 +7328,7 @@
       <c r="K486" s="1"/>
       <c r="L486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -7174,7 +7342,7 @@
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -7188,7 +7356,7 @@
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -7202,7 +7370,7 @@
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -7216,7 +7384,7 @@
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -7230,7 +7398,7 @@
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -7244,7 +7412,7 @@
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -7258,7 +7426,7 @@
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -7272,7 +7440,7 @@
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -7286,7 +7454,7 @@
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -7300,7 +7468,7 @@
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -7314,7 +7482,7 @@
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -7328,7 +7496,7 @@
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -7342,7 +7510,7 @@
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -7356,7 +7524,7 @@
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -7370,7 +7538,7 @@
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -7384,7 +7552,7 @@
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -7398,7 +7566,7 @@
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -7412,7 +7580,7 @@
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -7426,7 +7594,7 @@
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -7440,7 +7608,7 @@
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -7454,7 +7622,7 @@
       <c r="K507" s="1"/>
       <c r="L507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -7468,7 +7636,7 @@
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -7482,7 +7650,7 @@
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -7496,7 +7664,7 @@
       <c r="K510" s="1"/>
       <c r="L510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -7510,7 +7678,7 @@
       <c r="K511" s="1"/>
       <c r="L511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -7524,7 +7692,7 @@
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -7538,7 +7706,7 @@
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -7552,7 +7720,7 @@
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -7566,7 +7734,7 @@
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -7580,7 +7748,7 @@
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -7594,7 +7762,7 @@
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -7608,7 +7776,7 @@
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -7622,7 +7790,7 @@
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -7636,7 +7804,7 @@
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -7650,7 +7818,7 @@
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -7664,7 +7832,7 @@
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -7678,7 +7846,7 @@
       <c r="K523" s="1"/>
       <c r="L523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -7692,7 +7860,7 @@
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -7706,7 +7874,7 @@
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -7720,7 +7888,7 @@
       <c r="K526" s="1"/>
       <c r="L526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -7734,7 +7902,7 @@
       <c r="K527" s="1"/>
       <c r="L527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -7748,7 +7916,7 @@
       <c r="K528" s="1"/>
       <c r="L528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -7762,7 +7930,7 @@
       <c r="K529" s="1"/>
       <c r="L529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -7776,7 +7944,7 @@
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -7790,7 +7958,7 @@
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -7804,7 +7972,7 @@
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -7818,7 +7986,7 @@
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -7832,7 +8000,7 @@
       <c r="K534" s="1"/>
       <c r="L534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -7846,7 +8014,7 @@
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -7860,7 +8028,7 @@
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -7874,7 +8042,7 @@
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -7888,7 +8056,7 @@
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -7902,7 +8070,7 @@
       <c r="K539" s="1"/>
       <c r="L539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -7916,7 +8084,7 @@
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -7930,7 +8098,7 @@
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -7944,7 +8112,7 @@
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -7958,7 +8126,7 @@
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -7972,7 +8140,7 @@
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -7986,7 +8154,7 @@
       <c r="K545" s="1"/>
       <c r="L545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -8000,7 +8168,7 @@
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -8014,7 +8182,7 @@
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -8028,7 +8196,7 @@
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -8042,7 +8210,7 @@
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -8056,7 +8224,7 @@
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -8070,7 +8238,7 @@
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -8084,7 +8252,7 @@
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -8098,7 +8266,7 @@
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -8112,7 +8280,7 @@
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -8126,7 +8294,7 @@
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -8140,7 +8308,7 @@
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -8154,7 +8322,7 @@
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -8168,7 +8336,7 @@
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -8182,7 +8350,7 @@
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -8196,7 +8364,7 @@
       <c r="K560" s="1"/>
       <c r="L560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -8210,7 +8378,7 @@
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -8224,7 +8392,7 @@
       <c r="K562" s="1"/>
       <c r="L562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -8238,7 +8406,7 @@
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -8252,7 +8420,7 @@
       <c r="K564" s="1"/>
       <c r="L564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -8266,7 +8434,7 @@
       <c r="K565" s="1"/>
       <c r="L565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -8280,7 +8448,7 @@
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -8294,7 +8462,7 @@
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -8308,7 +8476,7 @@
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -8322,7 +8490,7 @@
       <c r="K569" s="1"/>
       <c r="L569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -8336,7 +8504,7 @@
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -8350,7 +8518,7 @@
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -8364,7 +8532,7 @@
       <c r="K572" s="1"/>
       <c r="L572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -8378,7 +8546,7 @@
       <c r="K573" s="1"/>
       <c r="L573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -8392,7 +8560,7 @@
       <c r="K574" s="1"/>
       <c r="L574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -8406,7 +8574,7 @@
       <c r="K575" s="1"/>
       <c r="L575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -8420,7 +8588,7 @@
       <c r="K576" s="1"/>
       <c r="L576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -8434,7 +8602,7 @@
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -8448,7 +8616,7 @@
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -8462,7 +8630,7 @@
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -8476,7 +8644,7 @@
       <c r="K580" s="1"/>
       <c r="L580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -8490,7 +8658,7 @@
       <c r="K581" s="1"/>
       <c r="L581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -8504,7 +8672,7 @@
       <c r="K582" s="1"/>
       <c r="L582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -8518,7 +8686,7 @@
       <c r="K583" s="1"/>
       <c r="L583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -8532,7 +8700,7 @@
       <c r="K584" s="1"/>
       <c r="L584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -8546,7 +8714,7 @@
       <c r="K585" s="1"/>
       <c r="L585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -8560,7 +8728,7 @@
       <c r="K586" s="1"/>
       <c r="L586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -8574,7 +8742,7 @@
       <c r="K587" s="1"/>
       <c r="L587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -8588,7 +8756,7 @@
       <c r="K588" s="1"/>
       <c r="L588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -8602,7 +8770,7 @@
       <c r="K589" s="1"/>
       <c r="L589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -8616,7 +8784,7 @@
       <c r="K590" s="1"/>
       <c r="L590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -8630,7 +8798,7 @@
       <c r="K591" s="1"/>
       <c r="L591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -8644,7 +8812,7 @@
       <c r="K592" s="1"/>
       <c r="L592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -8658,7 +8826,7 @@
       <c r="K593" s="1"/>
       <c r="L593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -8672,7 +8840,7 @@
       <c r="K594" s="1"/>
       <c r="L594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -8686,7 +8854,7 @@
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -8700,7 +8868,7 @@
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -8714,7 +8882,7 @@
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -8728,7 +8896,7 @@
       <c r="K598" s="1"/>
       <c r="L598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -8742,7 +8910,7 @@
       <c r="K599" s="1"/>
       <c r="L599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -8756,7 +8924,7 @@
       <c r="K600" s="1"/>
       <c r="L600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -8770,7 +8938,7 @@
       <c r="K601" s="1"/>
       <c r="L601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -8784,7 +8952,7 @@
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -8798,7 +8966,7 @@
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -8812,7 +8980,7 @@
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -8826,7 +8994,7 @@
       <c r="K605" s="1"/>
       <c r="L605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -8840,7 +9008,7 @@
       <c r="K606" s="1"/>
       <c r="L606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -8854,7 +9022,7 @@
       <c r="K607" s="1"/>
       <c r="L607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -8868,7 +9036,7 @@
       <c r="K608" s="1"/>
       <c r="L608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -8882,7 +9050,7 @@
       <c r="K609" s="1"/>
       <c r="L609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -8896,7 +9064,7 @@
       <c r="K610" s="1"/>
       <c r="L610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -8910,7 +9078,7 @@
       <c r="K611" s="1"/>
       <c r="L611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -8924,7 +9092,7 @@
       <c r="K612" s="1"/>
       <c r="L612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -8938,7 +9106,7 @@
       <c r="K613" s="1"/>
       <c r="L613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -8952,7 +9120,7 @@
       <c r="K614" s="1"/>
       <c r="L614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -8966,7 +9134,7 @@
       <c r="K615" s="1"/>
       <c r="L615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -8980,7 +9148,7 @@
       <c r="K616" s="1"/>
       <c r="L616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -8994,7 +9162,7 @@
       <c r="K617" s="1"/>
       <c r="L617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -9008,7 +9176,7 @@
       <c r="K618" s="1"/>
       <c r="L618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -9022,7 +9190,7 @@
       <c r="K619" s="1"/>
       <c r="L619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -9036,7 +9204,7 @@
       <c r="K620" s="1"/>
       <c r="L620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -9050,7 +9218,7 @@
       <c r="K621" s="1"/>
       <c r="L621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -9064,7 +9232,7 @@
       <c r="K622" s="1"/>
       <c r="L622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -9078,7 +9246,7 @@
       <c r="K623" s="1"/>
       <c r="L623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -9092,7 +9260,7 @@
       <c r="K624" s="1"/>
       <c r="L624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -9106,7 +9274,7 @@
       <c r="K625" s="1"/>
       <c r="L625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -9120,7 +9288,7 @@
       <c r="K626" s="1"/>
       <c r="L626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -9134,7 +9302,7 @@
       <c r="K627" s="1"/>
       <c r="L627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -9148,7 +9316,7 @@
       <c r="K628" s="1"/>
       <c r="L628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -9162,7 +9330,7 @@
       <c r="K629" s="1"/>
       <c r="L629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -9176,7 +9344,7 @@
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -9190,7 +9358,7 @@
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -9204,7 +9372,7 @@
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -9218,7 +9386,7 @@
       <c r="K633" s="1"/>
       <c r="L633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -9232,7 +9400,7 @@
       <c r="K634" s="1"/>
       <c r="L634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -9246,7 +9414,7 @@
       <c r="K635" s="1"/>
       <c r="L635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -9260,7 +9428,7 @@
       <c r="K636" s="1"/>
       <c r="L636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -9274,7 +9442,7 @@
       <c r="K637" s="1"/>
       <c r="L637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -9288,7 +9456,7 @@
       <c r="K638" s="1"/>
       <c r="L638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -9302,7 +9470,7 @@
       <c r="K639" s="1"/>
       <c r="L639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -9316,7 +9484,7 @@
       <c r="K640" s="1"/>
       <c r="L640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -9330,7 +9498,7 @@
       <c r="K641" s="1"/>
       <c r="L641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -9344,7 +9512,7 @@
       <c r="K642" s="1"/>
       <c r="L642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -9358,7 +9526,7 @@
       <c r="K643" s="1"/>
       <c r="L643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -9372,7 +9540,7 @@
       <c r="K644" s="1"/>
       <c r="L644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -9386,7 +9554,7 @@
       <c r="K645" s="1"/>
       <c r="L645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -9400,7 +9568,7 @@
       <c r="K646" s="1"/>
       <c r="L646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -9414,7 +9582,7 @@
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -9428,7 +9596,7 @@
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -9442,7 +9610,7 @@
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -9456,7 +9624,7 @@
       <c r="K650" s="1"/>
       <c r="L650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -9470,7 +9638,7 @@
       <c r="K651" s="1"/>
       <c r="L651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -9484,7 +9652,7 @@
       <c r="K652" s="1"/>
       <c r="L652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -9498,7 +9666,7 @@
       <c r="K653" s="1"/>
       <c r="L653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -9512,7 +9680,7 @@
       <c r="K654" s="1"/>
       <c r="L654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -9526,7 +9694,7 @@
       <c r="K655" s="1"/>
       <c r="L655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -9540,7 +9708,7 @@
       <c r="K656" s="1"/>
       <c r="L656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -9554,7 +9722,7 @@
       <c r="K657" s="1"/>
       <c r="L657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -9568,7 +9736,7 @@
       <c r="K658" s="1"/>
       <c r="L658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -9582,7 +9750,7 @@
       <c r="K659" s="1"/>
       <c r="L659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -9596,7 +9764,7 @@
       <c r="K660" s="1"/>
       <c r="L660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -9610,7 +9778,7 @@
       <c r="K661" s="1"/>
       <c r="L661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -9624,7 +9792,7 @@
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -9638,7 +9806,7 @@
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -9652,7 +9820,7 @@
       <c r="K664" s="1"/>
       <c r="L664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -9666,7 +9834,7 @@
       <c r="K665" s="1"/>
       <c r="L665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -9680,7 +9848,7 @@
       <c r="K666" s="1"/>
       <c r="L666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -9694,7 +9862,7 @@
       <c r="K667" s="1"/>
       <c r="L667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -9708,7 +9876,7 @@
       <c r="K668" s="1"/>
       <c r="L668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -9722,7 +9890,7 @@
       <c r="K669" s="1"/>
       <c r="L669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -9736,7 +9904,7 @@
       <c r="K670" s="1"/>
       <c r="L670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -9750,7 +9918,7 @@
       <c r="K671" s="1"/>
       <c r="L671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -9764,7 +9932,7 @@
       <c r="K672" s="1"/>
       <c r="L672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -9778,7 +9946,7 @@
       <c r="K673" s="1"/>
       <c r="L673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -9792,7 +9960,7 @@
       <c r="K674" s="1"/>
       <c r="L674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -9806,7 +9974,7 @@
       <c r="K675" s="1"/>
       <c r="L675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -9820,7 +9988,7 @@
       <c r="K676" s="1"/>
       <c r="L676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -9834,7 +10002,7 @@
       <c r="K677" s="1"/>
       <c r="L677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -9848,7 +10016,7 @@
       <c r="K678" s="1"/>
       <c r="L678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -9862,7 +10030,7 @@
       <c r="K679" s="1"/>
       <c r="L679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -9876,7 +10044,7 @@
       <c r="K680" s="1"/>
       <c r="L680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -9890,7 +10058,7 @@
       <c r="K681" s="1"/>
       <c r="L681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -9904,7 +10072,7 @@
       <c r="K682" s="1"/>
       <c r="L682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -9918,7 +10086,7 @@
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -9932,7 +10100,7 @@
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -9946,7 +10114,7 @@
       <c r="K685" s="1"/>
       <c r="L685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -9960,7 +10128,7 @@
       <c r="K686" s="1"/>
       <c r="L686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -9974,7 +10142,7 @@
       <c r="K687" s="1"/>
       <c r="L687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -9988,7 +10156,7 @@
       <c r="K688" s="1"/>
       <c r="L688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -10002,7 +10170,7 @@
       <c r="K689" s="1"/>
       <c r="L689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -10016,7 +10184,7 @@
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -10030,7 +10198,7 @@
       <c r="K691" s="1"/>
       <c r="L691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -10044,7 +10212,7 @@
       <c r="K692" s="1"/>
       <c r="L692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -10058,7 +10226,7 @@
       <c r="K693" s="1"/>
       <c r="L693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -10072,7 +10240,7 @@
       <c r="K694" s="1"/>
       <c r="L694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -10086,7 +10254,7 @@
       <c r="K695" s="1"/>
       <c r="L695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -10100,7 +10268,7 @@
       <c r="K696" s="1"/>
       <c r="L696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -10114,7 +10282,7 @@
       <c r="K697" s="1"/>
       <c r="L697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -10128,7 +10296,7 @@
       <c r="K698" s="1"/>
       <c r="L698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -10142,7 +10310,7 @@
       <c r="K699" s="1"/>
       <c r="L699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -10156,7 +10324,7 @@
       <c r="K700" s="1"/>
       <c r="L700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -10170,7 +10338,7 @@
       <c r="K701" s="1"/>
       <c r="L701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -10184,7 +10352,7 @@
       <c r="K702" s="1"/>
       <c r="L702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -10198,7 +10366,7 @@
       <c r="K703" s="1"/>
       <c r="L703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -10212,7 +10380,7 @@
       <c r="K704" s="1"/>
       <c r="L704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -10226,7 +10394,7 @@
       <c r="K705" s="1"/>
       <c r="L705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -10240,7 +10408,7 @@
       <c r="K706" s="1"/>
       <c r="L706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -10254,7 +10422,7 @@
       <c r="K707" s="1"/>
       <c r="L707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -10268,7 +10436,7 @@
       <c r="K708" s="1"/>
       <c r="L708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -10282,7 +10450,7 @@
       <c r="K709" s="1"/>
       <c r="L709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -10296,7 +10464,7 @@
       <c r="K710" s="1"/>
       <c r="L710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -10310,7 +10478,7 @@
       <c r="K711" s="1"/>
       <c r="L711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -10324,7 +10492,7 @@
       <c r="K712" s="1"/>
       <c r="L712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -10338,7 +10506,7 @@
       <c r="K713" s="1"/>
       <c r="L713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -10352,7 +10520,7 @@
       <c r="K714" s="1"/>
       <c r="L714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -10366,7 +10534,7 @@
       <c r="K715" s="1"/>
       <c r="L715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -10380,7 +10548,7 @@
       <c r="K716" s="1"/>
       <c r="L716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -10394,7 +10562,7 @@
       <c r="K717" s="1"/>
       <c r="L717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -10408,7 +10576,7 @@
       <c r="K718" s="1"/>
       <c r="L718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -10422,7 +10590,7 @@
       <c r="K719" s="1"/>
       <c r="L719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -10436,7 +10604,7 @@
       <c r="K720" s="1"/>
       <c r="L720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -10450,7 +10618,7 @@
       <c r="K721" s="1"/>
       <c r="L721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -10464,7 +10632,7 @@
       <c r="K722" s="1"/>
       <c r="L722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -10478,7 +10646,7 @@
       <c r="K723" s="1"/>
       <c r="L723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -10492,7 +10660,7 @@
       <c r="K724" s="1"/>
       <c r="L724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -10506,7 +10674,7 @@
       <c r="K725" s="1"/>
       <c r="L725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -10520,7 +10688,7 @@
       <c r="K726" s="1"/>
       <c r="L726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -10534,7 +10702,7 @@
       <c r="K727" s="1"/>
       <c r="L727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -10548,7 +10716,7 @@
       <c r="K728" s="1"/>
       <c r="L728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -10562,7 +10730,7 @@
       <c r="K729" s="1"/>
       <c r="L729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -10576,7 +10744,7 @@
       <c r="K730" s="1"/>
       <c r="L730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -10590,7 +10758,7 @@
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -10604,7 +10772,7 @@
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -10618,7 +10786,7 @@
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -10632,7 +10800,7 @@
       <c r="K734" s="1"/>
       <c r="L734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -10646,7 +10814,7 @@
       <c r="K735" s="1"/>
       <c r="L735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -10660,7 +10828,7 @@
       <c r="K736" s="1"/>
       <c r="L736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -10674,7 +10842,7 @@
       <c r="K737" s="1"/>
       <c r="L737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -10688,7 +10856,7 @@
       <c r="K738" s="1"/>
       <c r="L738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -10702,7 +10870,7 @@
       <c r="K739" s="1"/>
       <c r="L739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -10716,7 +10884,7 @@
       <c r="K740" s="1"/>
       <c r="L740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -10730,7 +10898,7 @@
       <c r="K741" s="1"/>
       <c r="L741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -10744,7 +10912,7 @@
       <c r="K742" s="1"/>
       <c r="L742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -10758,7 +10926,7 @@
       <c r="K743" s="1"/>
       <c r="L743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -10772,7 +10940,7 @@
       <c r="K744" s="1"/>
       <c r="L744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -10786,7 +10954,7 @@
       <c r="K745" s="1"/>
       <c r="L745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -10800,7 +10968,7 @@
       <c r="K746" s="1"/>
       <c r="L746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -10814,7 +10982,7 @@
       <c r="K747" s="1"/>
       <c r="L747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -10828,7 +10996,7 @@
       <c r="K748" s="1"/>
       <c r="L748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -10842,7 +11010,7 @@
       <c r="K749" s="1"/>
       <c r="L749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -10856,7 +11024,7 @@
       <c r="K750" s="1"/>
       <c r="L750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -10870,7 +11038,7 @@
       <c r="K751" s="1"/>
       <c r="L751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -10884,7 +11052,7 @@
       <c r="K752" s="1"/>
       <c r="L752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -10898,7 +11066,7 @@
       <c r="K753" s="1"/>
       <c r="L753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -10912,7 +11080,7 @@
       <c r="K754" s="1"/>
       <c r="L754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -10926,7 +11094,7 @@
       <c r="K755" s="1"/>
       <c r="L755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -10940,7 +11108,7 @@
       <c r="K756" s="1"/>
       <c r="L756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -10954,7 +11122,7 @@
       <c r="K757" s="1"/>
       <c r="L757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -10968,7 +11136,7 @@
       <c r="K758" s="1"/>
       <c r="L758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -10982,7 +11150,7 @@
       <c r="K759" s="1"/>
       <c r="L759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -10996,7 +11164,7 @@
       <c r="K760" s="1"/>
       <c r="L760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -11010,7 +11178,7 @@
       <c r="K761" s="1"/>
       <c r="L761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -11024,7 +11192,7 @@
       <c r="K762" s="1"/>
       <c r="L762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -11038,7 +11206,7 @@
       <c r="K763" s="1"/>
       <c r="L763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -11052,7 +11220,7 @@
       <c r="K764" s="1"/>
       <c r="L764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -11066,7 +11234,7 @@
       <c r="K765" s="1"/>
       <c r="L765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -11080,7 +11248,7 @@
       <c r="K766" s="1"/>
       <c r="L766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -11094,7 +11262,7 @@
       <c r="K767" s="1"/>
       <c r="L767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -11108,7 +11276,7 @@
       <c r="K768" s="1"/>
       <c r="L768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -11122,7 +11290,7 @@
       <c r="K769" s="1"/>
       <c r="L769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -11136,7 +11304,7 @@
       <c r="K770" s="1"/>
       <c r="L770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -11150,7 +11318,7 @@
       <c r="K771" s="1"/>
       <c r="L771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -11164,7 +11332,7 @@
       <c r="K772" s="1"/>
       <c r="L772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -11178,7 +11346,7 @@
       <c r="K773" s="1"/>
       <c r="L773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -11192,7 +11360,7 @@
       <c r="K774" s="1"/>
       <c r="L774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -11206,7 +11374,7 @@
       <c r="K775" s="1"/>
       <c r="L775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -11220,7 +11388,7 @@
       <c r="K776" s="1"/>
       <c r="L776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -11234,7 +11402,7 @@
       <c r="K777" s="1"/>
       <c r="L777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -11248,7 +11416,7 @@
       <c r="K778" s="1"/>
       <c r="L778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -11262,7 +11430,7 @@
       <c r="K779" s="1"/>
       <c r="L779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -11276,7 +11444,7 @@
       <c r="K780" s="1"/>
       <c r="L780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -11290,7 +11458,7 @@
       <c r="K781" s="1"/>
       <c r="L781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -11304,7 +11472,7 @@
       <c r="K782" s="1"/>
       <c r="L782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -11318,7 +11486,7 @@
       <c r="K783" s="1"/>
       <c r="L783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -11332,7 +11500,7 @@
       <c r="K784" s="1"/>
       <c r="L784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -11346,7 +11514,7 @@
       <c r="K785" s="1"/>
       <c r="L785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -11360,7 +11528,7 @@
       <c r="K786" s="1"/>
       <c r="L786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -11374,7 +11542,7 @@
       <c r="K787" s="1"/>
       <c r="L787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -11388,7 +11556,7 @@
       <c r="K788" s="1"/>
       <c r="L788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -11402,7 +11570,7 @@
       <c r="K789" s="1"/>
       <c r="L789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -11416,7 +11584,7 @@
       <c r="K790" s="1"/>
       <c r="L790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -11430,7 +11598,7 @@
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -11444,7 +11612,7 @@
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -11458,7 +11626,7 @@
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -11472,7 +11640,7 @@
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -11486,7 +11654,7 @@
       <c r="K795" s="1"/>
       <c r="L795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -11500,7 +11668,7 @@
       <c r="K796" s="1"/>
       <c r="L796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -11514,7 +11682,7 @@
       <c r="K797" s="1"/>
       <c r="L797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -11528,7 +11696,7 @@
       <c r="K798" s="1"/>
       <c r="L798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -11542,7 +11710,7 @@
       <c r="K799" s="1"/>
       <c r="L799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -11556,7 +11724,7 @@
       <c r="K800" s="1"/>
       <c r="L800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -11570,7 +11738,7 @@
       <c r="K801" s="1"/>
       <c r="L801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -11584,7 +11752,7 @@
       <c r="K802" s="1"/>
       <c r="L802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -11598,7 +11766,7 @@
       <c r="K803" s="1"/>
       <c r="L803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -11612,7 +11780,7 @@
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -11626,7 +11794,7 @@
       <c r="K805" s="1"/>
       <c r="L805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -11640,7 +11808,7 @@
       <c r="K806" s="1"/>
       <c r="L806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -11654,7 +11822,7 @@
       <c r="K807" s="1"/>
       <c r="L807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -11668,7 +11836,7 @@
       <c r="K808" s="1"/>
       <c r="L808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -11682,7 +11850,7 @@
       <c r="K809" s="1"/>
       <c r="L809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -11696,7 +11864,7 @@
       <c r="K810" s="1"/>
       <c r="L810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -11710,7 +11878,7 @@
       <c r="K811" s="1"/>
       <c r="L811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -11724,7 +11892,7 @@
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -11738,7 +11906,7 @@
       <c r="K813" s="1"/>
       <c r="L813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -11752,7 +11920,7 @@
       <c r="K814" s="1"/>
       <c r="L814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -11766,7 +11934,7 @@
       <c r="K815" s="1"/>
       <c r="L815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -11780,7 +11948,7 @@
       <c r="K816" s="1"/>
       <c r="L816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -11794,7 +11962,7 @@
       <c r="K817" s="1"/>
       <c r="L817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -11808,7 +11976,7 @@
       <c r="K818" s="1"/>
       <c r="L818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -11822,7 +11990,7 @@
       <c r="K819" s="1"/>
       <c r="L819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -11836,7 +12004,7 @@
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -11850,7 +12018,7 @@
       <c r="K821" s="1"/>
       <c r="L821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -11864,7 +12032,7 @@
       <c r="K822" s="1"/>
       <c r="L822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -11878,7 +12046,7 @@
       <c r="K823" s="1"/>
       <c r="L823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -11892,7 +12060,7 @@
       <c r="K824" s="1"/>
       <c r="L824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -11906,7 +12074,7 @@
       <c r="K825" s="1"/>
       <c r="L825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -11920,7 +12088,7 @@
       <c r="K826" s="1"/>
       <c r="L826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -11934,7 +12102,7 @@
       <c r="K827" s="1"/>
       <c r="L827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -11948,7 +12116,7 @@
       <c r="K828" s="1"/>
       <c r="L828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -11962,7 +12130,7 @@
       <c r="K829" s="1"/>
       <c r="L829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -11976,7 +12144,7 @@
       <c r="K830" s="1"/>
       <c r="L830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -11990,7 +12158,7 @@
       <c r="K831" s="1"/>
       <c r="L831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -12004,7 +12172,7 @@
       <c r="K832" s="1"/>
       <c r="L832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -12018,7 +12186,7 @@
       <c r="K833" s="1"/>
       <c r="L833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -12032,7 +12200,7 @@
       <c r="K834" s="1"/>
       <c r="L834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -12046,7 +12214,7 @@
       <c r="K835" s="1"/>
       <c r="L835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -12060,7 +12228,7 @@
       <c r="K836" s="1"/>
       <c r="L836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -12074,7 +12242,7 @@
       <c r="K837" s="1"/>
       <c r="L837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -12088,7 +12256,7 @@
       <c r="K838" s="1"/>
       <c r="L838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -12102,7 +12270,7 @@
       <c r="K839" s="1"/>
       <c r="L839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -12116,7 +12284,7 @@
       <c r="K840" s="1"/>
       <c r="L840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -12130,7 +12298,7 @@
       <c r="K841" s="1"/>
       <c r="L841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -12144,7 +12312,7 @@
       <c r="K842" s="1"/>
       <c r="L842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -12158,7 +12326,7 @@
       <c r="K843" s="1"/>
       <c r="L843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -12172,7 +12340,7 @@
       <c r="K844" s="1"/>
       <c r="L844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -12186,7 +12354,7 @@
       <c r="K845" s="1"/>
       <c r="L845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -12200,7 +12368,7 @@
       <c r="K846" s="1"/>
       <c r="L846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -12214,7 +12382,7 @@
       <c r="K847" s="1"/>
       <c r="L847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -12228,7 +12396,7 @@
       <c r="K848" s="1"/>
       <c r="L848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -12242,7 +12410,7 @@
       <c r="K849" s="1"/>
       <c r="L849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -12256,7 +12424,7 @@
       <c r="K850" s="1"/>
       <c r="L850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -12270,7 +12438,7 @@
       <c r="K851" s="1"/>
       <c r="L851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -12284,7 +12452,7 @@
       <c r="K852" s="1"/>
       <c r="L852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -12298,7 +12466,7 @@
       <c r="K853" s="1"/>
       <c r="L853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -12312,7 +12480,7 @@
       <c r="K854" s="1"/>
       <c r="L854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -12326,7 +12494,7 @@
       <c r="K855" s="1"/>
       <c r="L855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -12340,7 +12508,7 @@
       <c r="K856" s="1"/>
       <c r="L856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -12354,7 +12522,7 @@
       <c r="K857" s="1"/>
       <c r="L857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -12368,7 +12536,7 @@
       <c r="K858" s="1"/>
       <c r="L858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -12382,7 +12550,7 @@
       <c r="K859" s="1"/>
       <c r="L859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -12396,7 +12564,7 @@
       <c r="K860" s="1"/>
       <c r="L860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -12410,7 +12578,7 @@
       <c r="K861" s="1"/>
       <c r="L861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -12424,7 +12592,7 @@
       <c r="K862" s="1"/>
       <c r="L862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -12438,7 +12606,7 @@
       <c r="K863" s="1"/>
       <c r="L863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -12452,7 +12620,7 @@
       <c r="K864" s="1"/>
       <c r="L864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -12466,7 +12634,7 @@
       <c r="K865" s="1"/>
       <c r="L865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -12480,7 +12648,7 @@
       <c r="K866" s="1"/>
       <c r="L866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -12494,7 +12662,7 @@
       <c r="K867" s="1"/>
       <c r="L867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -12508,7 +12676,7 @@
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -12522,7 +12690,7 @@
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -12536,7 +12704,7 @@
       <c r="K870" s="1"/>
       <c r="L870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -12550,7 +12718,7 @@
       <c r="K871" s="1"/>
       <c r="L871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -12564,7 +12732,7 @@
       <c r="K872" s="1"/>
       <c r="L872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -12578,7 +12746,7 @@
       <c r="K873" s="1"/>
       <c r="L873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -12592,7 +12760,7 @@
       <c r="K874" s="1"/>
       <c r="L874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -12606,7 +12774,7 @@
       <c r="K875" s="1"/>
       <c r="L875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -12620,7 +12788,7 @@
       <c r="K876" s="1"/>
       <c r="L876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -12634,7 +12802,7 @@
       <c r="K877" s="1"/>
       <c r="L877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -12648,7 +12816,7 @@
       <c r="K878" s="1"/>
       <c r="L878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -12662,7 +12830,7 @@
       <c r="K879" s="1"/>
       <c r="L879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -12676,7 +12844,7 @@
       <c r="K880" s="1"/>
       <c r="L880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -12690,7 +12858,7 @@
       <c r="K881" s="1"/>
       <c r="L881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -12704,7 +12872,7 @@
       <c r="K882" s="1"/>
       <c r="L882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -12718,7 +12886,7 @@
       <c r="K883" s="1"/>
       <c r="L883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -12732,7 +12900,7 @@
       <c r="K884" s="1"/>
       <c r="L884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -12746,7 +12914,7 @@
       <c r="K885" s="1"/>
       <c r="L885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -12760,7 +12928,7 @@
       <c r="K886" s="1"/>
       <c r="L886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -12774,7 +12942,7 @@
       <c r="K887" s="1"/>
       <c r="L887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -12788,7 +12956,7 @@
       <c r="K888" s="1"/>
       <c r="L888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -12802,7 +12970,7 @@
       <c r="K889" s="1"/>
       <c r="L889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -12816,7 +12984,7 @@
       <c r="K890" s="1"/>
       <c r="L890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -12830,7 +12998,7 @@
       <c r="K891" s="1"/>
       <c r="L891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -12844,7 +13012,7 @@
       <c r="K892" s="1"/>
       <c r="L892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -12858,7 +13026,7 @@
       <c r="K893" s="1"/>
       <c r="L893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -12872,7 +13040,7 @@
       <c r="K894" s="1"/>
       <c r="L894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -12886,7 +13054,7 @@
       <c r="K895" s="1"/>
       <c r="L895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -12900,7 +13068,7 @@
       <c r="K896" s="1"/>
       <c r="L896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -12914,7 +13082,7 @@
       <c r="K897" s="1"/>
       <c r="L897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -12928,7 +13096,7 @@
       <c r="K898" s="1"/>
       <c r="L898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -12942,7 +13110,7 @@
       <c r="K899" s="1"/>
       <c r="L899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -12956,7 +13124,7 @@
       <c r="K900" s="1"/>
       <c r="L900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -12970,7 +13138,7 @@
       <c r="K901" s="1"/>
       <c r="L901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -12984,7 +13152,7 @@
       <c r="K902" s="1"/>
       <c r="L902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -12998,7 +13166,7 @@
       <c r="K903" s="1"/>
       <c r="L903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -13012,7 +13180,7 @@
       <c r="K904" s="1"/>
       <c r="L904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -13026,7 +13194,7 @@
       <c r="K905" s="1"/>
       <c r="L905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -13040,7 +13208,7 @@
       <c r="K906" s="1"/>
       <c r="L906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -13054,7 +13222,7 @@
       <c r="K907" s="1"/>
       <c r="L907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -13068,7 +13236,7 @@
       <c r="K908" s="1"/>
       <c r="L908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -13082,7 +13250,7 @@
       <c r="K909" s="1"/>
       <c r="L909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -13096,7 +13264,7 @@
       <c r="K910" s="1"/>
       <c r="L910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -13110,7 +13278,7 @@
       <c r="K911" s="1"/>
       <c r="L911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -13124,7 +13292,7 @@
       <c r="K912" s="1"/>
       <c r="L912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -13138,7 +13306,7 @@
       <c r="K913" s="1"/>
       <c r="L913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -13152,7 +13320,7 @@
       <c r="K914" s="1"/>
       <c r="L914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -13166,7 +13334,7 @@
       <c r="K915" s="1"/>
       <c r="L915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -13180,7 +13348,7 @@
       <c r="K916" s="1"/>
       <c r="L916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -13194,7 +13362,7 @@
       <c r="K917" s="1"/>
       <c r="L917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -13208,7 +13376,7 @@
       <c r="K918" s="1"/>
       <c r="L918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -13222,7 +13390,7 @@
       <c r="K919" s="1"/>
       <c r="L919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -13236,7 +13404,7 @@
       <c r="K920" s="1"/>
       <c r="L920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -13250,7 +13418,7 @@
       <c r="K921" s="1"/>
       <c r="L921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -13264,7 +13432,7 @@
       <c r="K922" s="1"/>
       <c r="L922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -13278,7 +13446,7 @@
       <c r="K923" s="1"/>
       <c r="L923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -13292,7 +13460,7 @@
       <c r="K924" s="1"/>
       <c r="L924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -13306,7 +13474,7 @@
       <c r="K925" s="1"/>
       <c r="L925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -13320,7 +13488,7 @@
       <c r="K926" s="1"/>
       <c r="L926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -13334,7 +13502,7 @@
       <c r="K927" s="1"/>
       <c r="L927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -13348,7 +13516,7 @@
       <c r="K928" s="1"/>
       <c r="L928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -13362,7 +13530,7 @@
       <c r="K929" s="1"/>
       <c r="L929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -13376,7 +13544,7 @@
       <c r="K930" s="1"/>
       <c r="L930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -13390,7 +13558,7 @@
       <c r="K931" s="1"/>
       <c r="L931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -13404,7 +13572,7 @@
       <c r="K932" s="1"/>
       <c r="L932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -13418,7 +13586,7 @@
       <c r="K933" s="1"/>
       <c r="L933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -13432,7 +13600,7 @@
       <c r="K934" s="1"/>
       <c r="L934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -13446,7 +13614,7 @@
       <c r="K935" s="1"/>
       <c r="L935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -13460,7 +13628,7 @@
       <c r="K936" s="1"/>
       <c r="L936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -13474,7 +13642,7 @@
       <c r="K937" s="1"/>
       <c r="L937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -13488,7 +13656,7 @@
       <c r="K938" s="1"/>
       <c r="L938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -13502,7 +13670,7 @@
       <c r="K939" s="1"/>
       <c r="L939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -13516,7 +13684,7 @@
       <c r="K940" s="1"/>
       <c r="L940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -13530,7 +13698,7 @@
       <c r="K941" s="1"/>
       <c r="L941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -13544,7 +13712,7 @@
       <c r="K942" s="1"/>
       <c r="L942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -13558,7 +13726,7 @@
       <c r="K943" s="1"/>
       <c r="L943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -13572,7 +13740,7 @@
       <c r="K944" s="1"/>
       <c r="L944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -13586,7 +13754,7 @@
       <c r="K945" s="1"/>
       <c r="L945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -13600,7 +13768,7 @@
       <c r="K946" s="1"/>
       <c r="L946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -13614,7 +13782,7 @@
       <c r="K947" s="1"/>
       <c r="L947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -13628,7 +13796,7 @@
       <c r="K948" s="1"/>
       <c r="L948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -13642,7 +13810,7 @@
       <c r="K949" s="1"/>
       <c r="L949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -13656,7 +13824,7 @@
       <c r="K950" s="1"/>
       <c r="L950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -13670,7 +13838,7 @@
       <c r="K951" s="1"/>
       <c r="L951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -13684,7 +13852,7 @@
       <c r="K952" s="1"/>
       <c r="L952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -13698,7 +13866,7 @@
       <c r="K953" s="1"/>
       <c r="L953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -13712,7 +13880,7 @@
       <c r="K954" s="1"/>
       <c r="L954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -13726,7 +13894,7 @@
       <c r="K955" s="1"/>
       <c r="L955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -13740,7 +13908,7 @@
       <c r="K956" s="1"/>
       <c r="L956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -13754,7 +13922,7 @@
       <c r="K957" s="1"/>
       <c r="L957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -13768,7 +13936,7 @@
       <c r="K958" s="1"/>
       <c r="L958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -13782,7 +13950,7 @@
       <c r="K959" s="1"/>
       <c r="L959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -13796,7 +13964,7 @@
       <c r="K960" s="1"/>
       <c r="L960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -13810,7 +13978,7 @@
       <c r="K961" s="1"/>
       <c r="L961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -13824,7 +13992,7 @@
       <c r="K962" s="1"/>
       <c r="L962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -13838,7 +14006,7 @@
       <c r="K963" s="1"/>
       <c r="L963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -13852,7 +14020,7 @@
       <c r="K964" s="1"/>
       <c r="L964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -13866,7 +14034,7 @@
       <c r="K965" s="1"/>
       <c r="L965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -13880,7 +14048,7 @@
       <c r="K966" s="1"/>
       <c r="L966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -13894,7 +14062,7 @@
       <c r="K967" s="1"/>
       <c r="L967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -13908,7 +14076,7 @@
       <c r="K968" s="1"/>
       <c r="L968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -13922,7 +14090,7 @@
       <c r="K969" s="1"/>
       <c r="L969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -13936,7 +14104,7 @@
       <c r="K970" s="1"/>
       <c r="L970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -13950,7 +14118,7 @@
       <c r="K971" s="1"/>
       <c r="L971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -13964,7 +14132,7 @@
       <c r="K972" s="1"/>
       <c r="L972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -13978,7 +14146,7 @@
       <c r="K973" s="1"/>
       <c r="L973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -13992,7 +14160,7 @@
       <c r="K974" s="1"/>
       <c r="L974" s="1"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -14006,7 +14174,7 @@
       <c r="K975" s="1"/>
       <c r="L975" s="1"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -14020,7 +14188,7 @@
       <c r="K976" s="1"/>
       <c r="L976" s="1"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -14034,7 +14202,7 @@
       <c r="K977" s="1"/>
       <c r="L977" s="1"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -14048,7 +14216,7 @@
       <c r="K978" s="1"/>
       <c r="L978" s="1"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -14062,7 +14230,7 @@
       <c r="K979" s="1"/>
       <c r="L979" s="1"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -14076,7 +14244,7 @@
       <c r="K980" s="1"/>
       <c r="L980" s="1"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -14090,7 +14258,7 @@
       <c r="K981" s="1"/>
       <c r="L981" s="1"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -14104,7 +14272,7 @@
       <c r="K982" s="1"/>
       <c r="L982" s="1"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -14118,7 +14286,7 @@
       <c r="K983" s="1"/>
       <c r="L983" s="1"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -14132,7 +14300,7 @@
       <c r="K984" s="1"/>
       <c r="L984" s="1"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -14146,7 +14314,7 @@
       <c r="K985" s="1"/>
       <c r="L985" s="1"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -14160,7 +14328,7 @@
       <c r="K986" s="1"/>
       <c r="L986" s="1"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -14174,7 +14342,7 @@
       <c r="K987" s="1"/>
       <c r="L987" s="1"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -14188,7 +14356,7 @@
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -14202,7 +14370,7 @@
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -14216,7 +14384,7 @@
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -14230,7 +14398,7 @@
       <c r="K991" s="1"/>
       <c r="L991" s="1"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -14244,7 +14412,7 @@
       <c r="K992" s="1"/>
       <c r="L992" s="1"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -14258,7 +14426,7 @@
       <c r="K993" s="1"/>
       <c r="L993" s="1"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -14272,7 +14440,7 @@
       <c r="K994" s="1"/>
       <c r="L994" s="1"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -14286,7 +14454,7 @@
       <c r="K995" s="1"/>
       <c r="L995" s="1"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -14300,7 +14468,7 @@
       <c r="K996" s="1"/>
       <c r="L996" s="1"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -14314,7 +14482,7 @@
       <c r="K997" s="1"/>
       <c r="L997" s="1"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -14328,7 +14496,7 @@
       <c r="K998" s="1"/>
       <c r="L998" s="1"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -14342,7 +14510,7 @@
       <c r="K999" s="1"/>
       <c r="L999" s="1"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -14357,6 +14525,7 @@
       <c r="L1000" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Management/PM_IssueLog.xlsx
+++ b/Project Management/PM_IssueLog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Quality Assurance\Internal-Banking-System\Project Management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="8244"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="8240"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Status</t>
   </si>
@@ -74,11 +69,17 @@
     <t>fine tuned siq document and resended to 
 customer to confirmed</t>
   </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -426,20 +427,20 @@
   <dimension ref="A1:BI1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.6328125" customWidth="1"/>
+    <col min="6" max="6" width="38.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="5" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="5" customFormat="1" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -514,14 +515,16 @@
       <c r="BH1"/>
       <c r="BI1"/>
     </row>
-    <row r="3" spans="1:61" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
@@ -532,14 +535,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
@@ -552,7 +557,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -572,14 +577,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
@@ -592,7 +597,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:61" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -628,12 +633,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -644,7 +649,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -660,7 +665,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -676,7 +681,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -692,7 +697,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -706,7 +711,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -720,7 +725,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -734,7 +739,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -874,7 +879,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -888,7 +893,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -902,7 +907,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -916,7 +921,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -930,7 +935,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -944,7 +949,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -958,7 +963,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -972,7 +977,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -986,7 +991,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1000,7 +1005,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1014,7 +1019,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1028,7 +1033,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1042,7 +1047,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1056,7 +1061,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1070,7 +1075,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1084,7 +1089,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1098,7 +1103,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1112,7 +1117,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1126,7 +1131,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1140,7 +1145,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1154,7 +1159,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1168,7 +1173,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1182,7 +1187,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1196,7 +1201,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1210,7 +1215,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1224,7 +1229,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1238,7 +1243,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1252,7 +1257,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1266,7 +1271,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1280,7 +1285,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1294,7 +1299,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1308,7 +1313,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1322,7 +1327,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1336,7 +1341,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1350,7 +1355,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1364,7 +1369,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1378,7 +1383,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1392,7 +1397,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1406,7 +1411,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1420,7 +1425,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1434,7 +1439,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1448,7 +1453,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1462,7 +1467,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1476,7 +1481,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1490,7 +1495,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1504,7 +1509,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1518,7 +1523,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1532,7 +1537,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1546,7 +1551,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1560,7 +1565,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1574,7 +1579,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1588,7 +1593,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1602,7 +1607,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1616,7 +1621,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1630,7 +1635,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1644,7 +1649,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1658,7 +1663,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1672,7 +1677,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1686,7 +1691,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1700,7 +1705,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1714,7 +1719,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1728,7 +1733,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1742,7 +1747,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1756,7 +1761,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1770,7 +1775,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1784,7 +1789,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1798,7 +1803,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1812,7 +1817,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1826,7 +1831,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1840,7 +1845,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1854,7 +1859,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1868,7 +1873,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1882,7 +1887,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1896,7 +1901,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1910,7 +1915,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1924,7 +1929,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1938,7 +1943,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1952,7 +1957,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1966,7 +1971,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1980,7 +1985,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1994,7 +1999,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2008,7 +2013,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2022,7 +2027,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2036,7 +2041,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2050,7 +2055,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2064,7 +2069,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2078,7 +2083,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2092,7 +2097,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2106,7 +2111,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2120,7 +2125,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2134,7 +2139,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2148,7 +2153,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2162,7 +2167,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2176,7 +2181,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2190,7 +2195,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2204,7 +2209,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2218,7 +2223,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2232,7 +2237,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2246,7 +2251,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2260,7 +2265,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2274,7 +2279,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2288,7 +2293,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2302,7 +2307,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2316,7 +2321,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2330,7 +2335,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2344,7 +2349,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2358,7 +2363,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2372,7 +2377,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2386,7 +2391,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2400,7 +2405,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2414,7 +2419,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2428,7 +2433,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2442,7 +2447,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2456,7 +2461,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2470,7 +2475,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2484,7 +2489,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2498,7 +2503,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2512,7 +2517,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2526,7 +2531,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2540,7 +2545,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2554,7 +2559,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2568,7 +2573,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2582,7 +2587,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2596,7 +2601,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2610,7 +2615,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2624,7 +2629,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2638,7 +2643,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2652,7 +2657,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2666,7 +2671,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2680,7 +2685,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2694,7 +2699,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2708,7 +2713,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2722,7 +2727,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2736,7 +2741,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2750,7 +2755,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2764,7 +2769,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2778,7 +2783,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2792,7 +2797,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2806,7 +2811,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2820,7 +2825,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2834,7 +2839,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2848,7 +2853,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2862,7 +2867,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2876,7 +2881,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2890,7 +2895,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2904,7 +2909,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2918,7 +2923,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2932,7 +2937,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2946,7 +2951,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2960,7 +2965,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2974,7 +2979,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2988,7 +2993,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3002,7 +3007,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3016,7 +3021,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3030,7 +3035,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3044,7 +3049,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3058,7 +3063,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3072,7 +3077,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3086,7 +3091,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3100,7 +3105,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3114,7 +3119,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3128,7 +3133,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3142,7 +3147,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3156,7 +3161,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3170,7 +3175,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3184,7 +3189,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3198,7 +3203,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3212,7 +3217,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3226,7 +3231,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3240,7 +3245,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3254,7 +3259,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3268,7 +3273,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3282,7 +3287,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3296,7 +3301,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3310,7 +3315,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3324,7 +3329,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3338,7 +3343,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3352,7 +3357,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3366,7 +3371,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3380,7 +3385,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3394,7 +3399,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3408,7 +3413,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3422,7 +3427,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3436,7 +3441,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3450,7 +3455,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3464,7 +3469,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3478,7 +3483,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3492,7 +3497,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3506,7 +3511,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3520,7 +3525,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3534,7 +3539,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3548,7 +3553,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3562,7 +3567,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3576,7 +3581,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3590,7 +3595,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3604,7 +3609,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3618,7 +3623,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3632,7 +3637,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3646,7 +3651,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3660,7 +3665,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3674,7 +3679,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3688,7 +3693,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3702,7 +3707,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3716,7 +3721,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3730,7 +3735,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3744,7 +3749,7 @@
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3758,7 +3763,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3772,7 +3777,7 @@
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3786,7 +3791,7 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3800,7 +3805,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3814,7 +3819,7 @@
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3828,7 +3833,7 @@
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -3842,7 +3847,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -3856,7 +3861,7 @@
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -3870,7 +3875,7 @@
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -3884,7 +3889,7 @@
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -3898,7 +3903,7 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -3912,7 +3917,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -3926,7 +3931,7 @@
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -3940,7 +3945,7 @@
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -3954,7 +3959,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -3968,7 +3973,7 @@
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -3982,7 +3987,7 @@
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -3996,7 +4001,7 @@
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -4010,7 +4015,7 @@
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4024,7 +4029,7 @@
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4038,7 +4043,7 @@
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -4052,7 +4057,7 @@
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4066,7 +4071,7 @@
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4080,7 +4085,7 @@
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4094,7 +4099,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4108,7 +4113,7 @@
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4122,7 +4127,7 @@
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4136,7 +4141,7 @@
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4150,7 +4155,7 @@
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4164,7 +4169,7 @@
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4178,7 +4183,7 @@
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4192,7 +4197,7 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4206,7 +4211,7 @@
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4220,7 +4225,7 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4234,7 +4239,7 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4248,7 +4253,7 @@
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4262,7 +4267,7 @@
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4276,7 +4281,7 @@
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4290,7 +4295,7 @@
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4304,7 +4309,7 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4318,7 +4323,7 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4332,7 +4337,7 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4346,7 +4351,7 @@
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4360,7 +4365,7 @@
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4374,7 +4379,7 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4388,7 +4393,7 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4402,7 +4407,7 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4416,7 +4421,7 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4430,7 +4435,7 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4444,7 +4449,7 @@
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4458,7 +4463,7 @@
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4472,7 +4477,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4486,7 +4491,7 @@
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4500,7 +4505,7 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -4514,7 +4519,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4528,7 +4533,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4542,7 +4547,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4556,7 +4561,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4570,7 +4575,7 @@
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4584,7 +4589,7 @@
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4598,7 +4603,7 @@
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4612,7 +4617,7 @@
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4626,7 +4631,7 @@
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4640,7 +4645,7 @@
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4654,7 +4659,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4668,7 +4673,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4682,7 +4687,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4696,7 +4701,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -4710,7 +4715,7 @@
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4724,7 +4729,7 @@
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -4738,7 +4743,7 @@
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4752,7 +4757,7 @@
       <c r="K302" s="1"/>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4766,7 +4771,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -4780,7 +4785,7 @@
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -4794,7 +4799,7 @@
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -4808,7 +4813,7 @@
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -4822,7 +4827,7 @@
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -4836,7 +4841,7 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -4850,7 +4855,7 @@
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -4864,7 +4869,7 @@
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -4878,7 +4883,7 @@
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -4892,7 +4897,7 @@
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -4906,7 +4911,7 @@
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -4920,7 +4925,7 @@
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -4934,7 +4939,7 @@
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -4948,7 +4953,7 @@
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -4962,7 +4967,7 @@
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -4976,7 +4981,7 @@
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -4990,7 +4995,7 @@
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5004,7 +5009,7 @@
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -5018,7 +5023,7 @@
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -5032,7 +5037,7 @@
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -5046,7 +5051,7 @@
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -5060,7 +5065,7 @@
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5074,7 +5079,7 @@
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5088,7 +5093,7 @@
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5102,7 +5107,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5116,7 +5121,7 @@
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5130,7 +5135,7 @@
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5144,7 +5149,7 @@
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5158,7 +5163,7 @@
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5172,7 +5177,7 @@
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5186,7 +5191,7 @@
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5200,7 +5205,7 @@
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5214,7 +5219,7 @@
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5228,7 +5233,7 @@
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5242,7 +5247,7 @@
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5256,7 +5261,7 @@
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5270,7 +5275,7 @@
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5284,7 +5289,7 @@
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5298,7 +5303,7 @@
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5312,7 +5317,7 @@
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5326,7 +5331,7 @@
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5340,7 +5345,7 @@
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
     </row>
-    <row r="345" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5354,7 +5359,7 @@
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
     </row>
-    <row r="346" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5368,7 +5373,7 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5382,7 +5387,7 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5396,7 +5401,7 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5410,7 +5415,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5424,7 +5429,7 @@
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
     </row>
-    <row r="351" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5438,7 +5443,7 @@
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
     </row>
-    <row r="352" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5452,7 +5457,7 @@
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
     </row>
-    <row r="353" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5466,7 +5471,7 @@
       <c r="K353" s="1"/>
       <c r="L353" s="1"/>
     </row>
-    <row r="354" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5480,7 +5485,7 @@
       <c r="K354" s="1"/>
       <c r="L354" s="1"/>
     </row>
-    <row r="355" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5494,7 +5499,7 @@
       <c r="K355" s="1"/>
       <c r="L355" s="1"/>
     </row>
-    <row r="356" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5508,7 +5513,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -5522,7 +5527,7 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
     </row>
-    <row r="358" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -5536,7 +5541,7 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
     </row>
-    <row r="359" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -5550,7 +5555,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -5564,7 +5569,7 @@
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
     </row>
-    <row r="361" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -5578,7 +5583,7 @@
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
     </row>
-    <row r="362" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -5592,7 +5597,7 @@
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
     </row>
-    <row r="363" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -5606,7 +5611,7 @@
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
     </row>
-    <row r="364" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -5620,7 +5625,7 @@
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -5634,7 +5639,7 @@
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -5648,7 +5653,7 @@
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
     </row>
-    <row r="367" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -5662,7 +5667,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -5676,7 +5681,7 @@
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
     </row>
-    <row r="369" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -5690,7 +5695,7 @@
       <c r="K369" s="1"/>
       <c r="L369" s="1"/>
     </row>
-    <row r="370" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -5704,7 +5709,7 @@
       <c r="K370" s="1"/>
       <c r="L370" s="1"/>
     </row>
-    <row r="371" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -5718,7 +5723,7 @@
       <c r="K371" s="1"/>
       <c r="L371" s="1"/>
     </row>
-    <row r="372" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -5732,7 +5737,7 @@
       <c r="K372" s="1"/>
       <c r="L372" s="1"/>
     </row>
-    <row r="373" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -5746,7 +5751,7 @@
       <c r="K373" s="1"/>
       <c r="L373" s="1"/>
     </row>
-    <row r="374" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -5760,7 +5765,7 @@
       <c r="K374" s="1"/>
       <c r="L374" s="1"/>
     </row>
-    <row r="375" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -5774,7 +5779,7 @@
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
     </row>
-    <row r="376" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -5788,7 +5793,7 @@
       <c r="K376" s="1"/>
       <c r="L376" s="1"/>
     </row>
-    <row r="377" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -5802,7 +5807,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -5816,7 +5821,7 @@
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
     </row>
-    <row r="379" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -5830,7 +5835,7 @@
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
     </row>
-    <row r="380" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -5844,7 +5849,7 @@
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
     </row>
-    <row r="381" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -5858,7 +5863,7 @@
       <c r="K381" s="1"/>
       <c r="L381" s="1"/>
     </row>
-    <row r="382" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -5872,7 +5877,7 @@
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
     </row>
-    <row r="383" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -5886,7 +5891,7 @@
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
     </row>
-    <row r="384" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -5900,7 +5905,7 @@
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
     </row>
-    <row r="385" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -5914,7 +5919,7 @@
       <c r="K385" s="1"/>
       <c r="L385" s="1"/>
     </row>
-    <row r="386" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -5928,7 +5933,7 @@
       <c r="K386" s="1"/>
       <c r="L386" s="1"/>
     </row>
-    <row r="387" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -5942,7 +5947,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -5956,7 +5961,7 @@
       <c r="K388" s="1"/>
       <c r="L388" s="1"/>
     </row>
-    <row r="389" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -5970,7 +5975,7 @@
       <c r="K389" s="1"/>
       <c r="L389" s="1"/>
     </row>
-    <row r="390" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -5984,7 +5989,7 @@
       <c r="K390" s="1"/>
       <c r="L390" s="1"/>
     </row>
-    <row r="391" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -5998,7 +6003,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -6012,7 +6017,7 @@
       <c r="K392" s="1"/>
       <c r="L392" s="1"/>
     </row>
-    <row r="393" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -6026,7 +6031,7 @@
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
     </row>
-    <row r="394" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -6040,7 +6045,7 @@
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
     </row>
-    <row r="395" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -6054,7 +6059,7 @@
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
     </row>
-    <row r="396" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -6068,7 +6073,7 @@
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
     </row>
-    <row r="397" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -6082,7 +6087,7 @@
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
     </row>
-    <row r="398" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -6096,7 +6101,7 @@
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
     </row>
-    <row r="399" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -6110,7 +6115,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -6124,7 +6129,7 @@
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
     </row>
-    <row r="401" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -6138,7 +6143,7 @@
       <c r="K401" s="1"/>
       <c r="L401" s="1"/>
     </row>
-    <row r="402" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -6152,7 +6157,7 @@
       <c r="K402" s="1"/>
       <c r="L402" s="1"/>
     </row>
-    <row r="403" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -6166,7 +6171,7 @@
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
     </row>
-    <row r="404" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -6180,7 +6185,7 @@
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
     </row>
-    <row r="405" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -6194,7 +6199,7 @@
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
     </row>
-    <row r="406" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -6208,7 +6213,7 @@
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
     </row>
-    <row r="407" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -6222,7 +6227,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -6236,7 +6241,7 @@
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
     </row>
-    <row r="409" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -6250,7 +6255,7 @@
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
     </row>
-    <row r="410" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -6264,7 +6269,7 @@
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
     </row>
-    <row r="411" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -6278,7 +6283,7 @@
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
     </row>
-    <row r="412" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -6292,7 +6297,7 @@
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
     </row>
-    <row r="413" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -6306,7 +6311,7 @@
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
     </row>
-    <row r="414" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -6320,7 +6325,7 @@
       <c r="K414" s="1"/>
       <c r="L414" s="1"/>
     </row>
-    <row r="415" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -6334,7 +6339,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -6348,7 +6353,7 @@
       <c r="K416" s="1"/>
       <c r="L416" s="1"/>
     </row>
-    <row r="417" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -6362,7 +6367,7 @@
       <c r="K417" s="1"/>
       <c r="L417" s="1"/>
     </row>
-    <row r="418" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -6376,7 +6381,7 @@
       <c r="K418" s="1"/>
       <c r="L418" s="1"/>
     </row>
-    <row r="419" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -6390,7 +6395,7 @@
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
     </row>
-    <row r="420" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -6404,7 +6409,7 @@
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
     </row>
-    <row r="421" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -6418,7 +6423,7 @@
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
     </row>
-    <row r="422" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -6432,7 +6437,7 @@
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
     </row>
-    <row r="423" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -6446,7 +6451,7 @@
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
     </row>
-    <row r="424" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -6460,7 +6465,7 @@
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
     </row>
-    <row r="425" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -6474,7 +6479,7 @@
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
     </row>
-    <row r="426" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -6488,7 +6493,7 @@
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
     </row>
-    <row r="427" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -6502,7 +6507,7 @@
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
     </row>
-    <row r="428" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -6516,7 +6521,7 @@
       <c r="K428" s="1"/>
       <c r="L428" s="1"/>
     </row>
-    <row r="429" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -6530,7 +6535,7 @@
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
     </row>
-    <row r="430" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -6544,7 +6549,7 @@
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
     </row>
-    <row r="431" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -6558,7 +6563,7 @@
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
     </row>
-    <row r="432" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -6572,7 +6577,7 @@
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
     </row>
-    <row r="433" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -6586,7 +6591,7 @@
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
     </row>
-    <row r="434" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -6600,7 +6605,7 @@
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
     </row>
-    <row r="435" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -6614,7 +6619,7 @@
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
     </row>
-    <row r="436" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -6628,7 +6633,7 @@
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
     </row>
-    <row r="437" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -6642,7 +6647,7 @@
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
     </row>
-    <row r="438" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -6656,7 +6661,7 @@
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
     </row>
-    <row r="439" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -6670,7 +6675,7 @@
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
     </row>
-    <row r="440" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -6684,7 +6689,7 @@
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
     </row>
-    <row r="441" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -6698,7 +6703,7 @@
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
     </row>
-    <row r="442" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -6712,7 +6717,7 @@
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
     </row>
-    <row r="443" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -6726,7 +6731,7 @@
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
     </row>
-    <row r="444" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -6740,7 +6745,7 @@
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
     </row>
-    <row r="445" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -6754,7 +6759,7 @@
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
     </row>
-    <row r="446" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -6768,7 +6773,7 @@
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
     </row>
-    <row r="447" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -6782,7 +6787,7 @@
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
     </row>
-    <row r="448" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -6796,7 +6801,7 @@
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
     </row>
-    <row r="449" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -6810,7 +6815,7 @@
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
     </row>
-    <row r="450" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -6824,7 +6829,7 @@
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
     </row>
-    <row r="451" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -6838,7 +6843,7 @@
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
     </row>
-    <row r="452" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -6852,7 +6857,7 @@
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
     </row>
-    <row r="453" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -6866,7 +6871,7 @@
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
     </row>
-    <row r="454" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -6880,7 +6885,7 @@
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
     </row>
-    <row r="455" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -6894,7 +6899,7 @@
       <c r="K455" s="1"/>
       <c r="L455" s="1"/>
     </row>
-    <row r="456" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -6908,7 +6913,7 @@
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
     </row>
-    <row r="457" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -6922,7 +6927,7 @@
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
     </row>
-    <row r="458" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -6936,7 +6941,7 @@
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
     </row>
-    <row r="459" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -6950,7 +6955,7 @@
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
     </row>
-    <row r="460" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -6964,7 +6969,7 @@
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
     </row>
-    <row r="461" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -6978,7 +6983,7 @@
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
     </row>
-    <row r="462" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -6992,7 +6997,7 @@
       <c r="K462" s="1"/>
       <c r="L462" s="1"/>
     </row>
-    <row r="463" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -7006,7 +7011,7 @@
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
     </row>
-    <row r="464" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -7020,7 +7025,7 @@
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
     </row>
-    <row r="465" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -7034,7 +7039,7 @@
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
     </row>
-    <row r="466" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -7048,7 +7053,7 @@
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
     </row>
-    <row r="467" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -7062,7 +7067,7 @@
       <c r="K467" s="1"/>
       <c r="L467" s="1"/>
     </row>
-    <row r="468" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -7076,7 +7081,7 @@
       <c r="K468" s="1"/>
       <c r="L468" s="1"/>
     </row>
-    <row r="469" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -7090,7 +7095,7 @@
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
     </row>
-    <row r="470" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -7104,7 +7109,7 @@
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
     </row>
-    <row r="471" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -7118,7 +7123,7 @@
       <c r="K471" s="1"/>
       <c r="L471" s="1"/>
     </row>
-    <row r="472" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -7132,7 +7137,7 @@
       <c r="K472" s="1"/>
       <c r="L472" s="1"/>
     </row>
-    <row r="473" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -7146,7 +7151,7 @@
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
     </row>
-    <row r="474" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -7160,7 +7165,7 @@
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
     </row>
-    <row r="475" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -7174,7 +7179,7 @@
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
     </row>
-    <row r="476" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -7188,7 +7193,7 @@
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
     </row>
-    <row r="477" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -7202,7 +7207,7 @@
       <c r="K477" s="1"/>
       <c r="L477" s="1"/>
     </row>
-    <row r="478" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -7216,7 +7221,7 @@
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
     </row>
-    <row r="479" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -7230,7 +7235,7 @@
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
     </row>
-    <row r="480" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -7244,7 +7249,7 @@
       <c r="K480" s="1"/>
       <c r="L480" s="1"/>
     </row>
-    <row r="481" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -7258,7 +7263,7 @@
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
     </row>
-    <row r="482" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -7272,7 +7277,7 @@
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
     </row>
-    <row r="483" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -7286,7 +7291,7 @@
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
     </row>
-    <row r="484" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -7300,7 +7305,7 @@
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
     </row>
-    <row r="485" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -7314,7 +7319,7 @@
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
     </row>
-    <row r="486" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -7328,7 +7333,7 @@
       <c r="K486" s="1"/>
       <c r="L486" s="1"/>
     </row>
-    <row r="487" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -7342,7 +7347,7 @@
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
     </row>
-    <row r="488" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -7356,7 +7361,7 @@
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
     </row>
-    <row r="489" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -7370,7 +7375,7 @@
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
     </row>
-    <row r="490" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -7384,7 +7389,7 @@
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
     </row>
-    <row r="491" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -7398,7 +7403,7 @@
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
     </row>
-    <row r="492" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -7412,7 +7417,7 @@
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
     </row>
-    <row r="493" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -7426,7 +7431,7 @@
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
     </row>
-    <row r="494" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -7440,7 +7445,7 @@
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
     </row>
-    <row r="495" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -7454,7 +7459,7 @@
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
     </row>
-    <row r="496" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -7468,7 +7473,7 @@
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
     </row>
-    <row r="497" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -7482,7 +7487,7 @@
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
     </row>
-    <row r="498" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -7496,7 +7501,7 @@
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
     </row>
-    <row r="499" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -7510,7 +7515,7 @@
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
     </row>
-    <row r="500" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -7524,7 +7529,7 @@
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
     </row>
-    <row r="501" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -7538,7 +7543,7 @@
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
     </row>
-    <row r="502" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -7552,7 +7557,7 @@
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
     </row>
-    <row r="503" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -7566,7 +7571,7 @@
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
     </row>
-    <row r="504" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -7580,7 +7585,7 @@
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
     </row>
-    <row r="505" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -7594,7 +7599,7 @@
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
     </row>
-    <row r="506" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -7608,7 +7613,7 @@
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
     </row>
-    <row r="507" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -7622,7 +7627,7 @@
       <c r="K507" s="1"/>
       <c r="L507" s="1"/>
     </row>
-    <row r="508" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -7636,7 +7641,7 @@
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
     </row>
-    <row r="509" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -7650,7 +7655,7 @@
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
     </row>
-    <row r="510" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -7664,7 +7669,7 @@
       <c r="K510" s="1"/>
       <c r="L510" s="1"/>
     </row>
-    <row r="511" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -7678,7 +7683,7 @@
       <c r="K511" s="1"/>
       <c r="L511" s="1"/>
     </row>
-    <row r="512" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -7692,7 +7697,7 @@
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
     </row>
-    <row r="513" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -7706,7 +7711,7 @@
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
     </row>
-    <row r="514" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -7720,7 +7725,7 @@
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
     </row>
-    <row r="515" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -7734,7 +7739,7 @@
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
     </row>
-    <row r="516" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -7748,7 +7753,7 @@
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
     </row>
-    <row r="517" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -7762,7 +7767,7 @@
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
     </row>
-    <row r="518" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -7776,7 +7781,7 @@
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
     </row>
-    <row r="519" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -7790,7 +7795,7 @@
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
     </row>
-    <row r="520" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -7804,7 +7809,7 @@
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
     </row>
-    <row r="521" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -7818,7 +7823,7 @@
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
     </row>
-    <row r="522" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -7832,7 +7837,7 @@
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
     </row>
-    <row r="523" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -7846,7 +7851,7 @@
       <c r="K523" s="1"/>
       <c r="L523" s="1"/>
     </row>
-    <row r="524" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -7860,7 +7865,7 @@
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
     </row>
-    <row r="525" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -7874,7 +7879,7 @@
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
     </row>
-    <row r="526" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -7888,7 +7893,7 @@
       <c r="K526" s="1"/>
       <c r="L526" s="1"/>
     </row>
-    <row r="527" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -7902,7 +7907,7 @@
       <c r="K527" s="1"/>
       <c r="L527" s="1"/>
     </row>
-    <row r="528" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -7916,7 +7921,7 @@
       <c r="K528" s="1"/>
       <c r="L528" s="1"/>
     </row>
-    <row r="529" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -7930,7 +7935,7 @@
       <c r="K529" s="1"/>
       <c r="L529" s="1"/>
     </row>
-    <row r="530" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -7944,7 +7949,7 @@
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
     </row>
-    <row r="531" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -7958,7 +7963,7 @@
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
     </row>
-    <row r="532" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -7972,7 +7977,7 @@
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
     </row>
-    <row r="533" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -7986,7 +7991,7 @@
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
     </row>
-    <row r="534" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -8000,7 +8005,7 @@
       <c r="K534" s="1"/>
       <c r="L534" s="1"/>
     </row>
-    <row r="535" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -8014,7 +8019,7 @@
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
     </row>
-    <row r="536" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -8028,7 +8033,7 @@
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
     </row>
-    <row r="537" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -8042,7 +8047,7 @@
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
     </row>
-    <row r="538" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -8056,7 +8061,7 @@
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
     </row>
-    <row r="539" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -8070,7 +8075,7 @@
       <c r="K539" s="1"/>
       <c r="L539" s="1"/>
     </row>
-    <row r="540" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -8084,7 +8089,7 @@
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
     </row>
-    <row r="541" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -8098,7 +8103,7 @@
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
     </row>
-    <row r="542" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -8112,7 +8117,7 @@
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
     </row>
-    <row r="543" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -8126,7 +8131,7 @@
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
     </row>
-    <row r="544" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -8140,7 +8145,7 @@
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
     </row>
-    <row r="545" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -8154,7 +8159,7 @@
       <c r="K545" s="1"/>
       <c r="L545" s="1"/>
     </row>
-    <row r="546" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -8168,7 +8173,7 @@
       <c r="K546" s="1"/>
       <c r="L546" s="1"/>
     </row>
-    <row r="547" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -8182,7 +8187,7 @@
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
     </row>
-    <row r="548" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -8196,7 +8201,7 @@
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
     </row>
-    <row r="549" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -8210,7 +8215,7 @@
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
     </row>
-    <row r="550" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -8224,7 +8229,7 @@
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
     </row>
-    <row r="551" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -8238,7 +8243,7 @@
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
     </row>
-    <row r="552" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -8252,7 +8257,7 @@
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
     </row>
-    <row r="553" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -8266,7 +8271,7 @@
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
     </row>
-    <row r="554" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -8280,7 +8285,7 @@
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
     </row>
-    <row r="555" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -8294,7 +8299,7 @@
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
     </row>
-    <row r="556" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -8308,7 +8313,7 @@
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
     </row>
-    <row r="557" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -8322,7 +8327,7 @@
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
     </row>
-    <row r="558" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -8336,7 +8341,7 @@
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
     </row>
-    <row r="559" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -8350,7 +8355,7 @@
       <c r="K559" s="1"/>
       <c r="L559" s="1"/>
     </row>
-    <row r="560" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -8364,7 +8369,7 @@
       <c r="K560" s="1"/>
       <c r="L560" s="1"/>
     </row>
-    <row r="561" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -8378,7 +8383,7 @@
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
     </row>
-    <row r="562" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -8392,7 +8397,7 @@
       <c r="K562" s="1"/>
       <c r="L562" s="1"/>
     </row>
-    <row r="563" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -8406,7 +8411,7 @@
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
     </row>
-    <row r="564" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -8420,7 +8425,7 @@
       <c r="K564" s="1"/>
       <c r="L564" s="1"/>
     </row>
-    <row r="565" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -8434,7 +8439,7 @@
       <c r="K565" s="1"/>
       <c r="L565" s="1"/>
     </row>
-    <row r="566" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -8448,7 +8453,7 @@
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
     </row>
-    <row r="567" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -8462,7 +8467,7 @@
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
     </row>
-    <row r="568" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -8476,7 +8481,7 @@
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
     </row>
-    <row r="569" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -8490,7 +8495,7 @@
       <c r="K569" s="1"/>
       <c r="L569" s="1"/>
     </row>
-    <row r="570" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -8504,7 +8509,7 @@
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
     </row>
-    <row r="571" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -8518,7 +8523,7 @@
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
     </row>
-    <row r="572" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -8532,7 +8537,7 @@
       <c r="K572" s="1"/>
       <c r="L572" s="1"/>
     </row>
-    <row r="573" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -8546,7 +8551,7 @@
       <c r="K573" s="1"/>
       <c r="L573" s="1"/>
     </row>
-    <row r="574" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -8560,7 +8565,7 @@
       <c r="K574" s="1"/>
       <c r="L574" s="1"/>
     </row>
-    <row r="575" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -8574,7 +8579,7 @@
       <c r="K575" s="1"/>
       <c r="L575" s="1"/>
     </row>
-    <row r="576" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -8588,7 +8593,7 @@
       <c r="K576" s="1"/>
       <c r="L576" s="1"/>
     </row>
-    <row r="577" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -8602,7 +8607,7 @@
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
     </row>
-    <row r="578" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -8616,7 +8621,7 @@
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
     </row>
-    <row r="579" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -8630,7 +8635,7 @@
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
     </row>
-    <row r="580" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -8644,7 +8649,7 @@
       <c r="K580" s="1"/>
       <c r="L580" s="1"/>
     </row>
-    <row r="581" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -8658,7 +8663,7 @@
       <c r="K581" s="1"/>
       <c r="L581" s="1"/>
     </row>
-    <row r="582" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -8672,7 +8677,7 @@
       <c r="K582" s="1"/>
       <c r="L582" s="1"/>
     </row>
-    <row r="583" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -8686,7 +8691,7 @@
       <c r="K583" s="1"/>
       <c r="L583" s="1"/>
     </row>
-    <row r="584" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -8700,7 +8705,7 @@
       <c r="K584" s="1"/>
       <c r="L584" s="1"/>
     </row>
-    <row r="585" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -8714,7 +8719,7 @@
       <c r="K585" s="1"/>
       <c r="L585" s="1"/>
     </row>
-    <row r="586" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -8728,7 +8733,7 @@
       <c r="K586" s="1"/>
       <c r="L586" s="1"/>
     </row>
-    <row r="587" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -8742,7 +8747,7 @@
       <c r="K587" s="1"/>
       <c r="L587" s="1"/>
     </row>
-    <row r="588" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -8756,7 +8761,7 @@
       <c r="K588" s="1"/>
       <c r="L588" s="1"/>
     </row>
-    <row r="589" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -8770,7 +8775,7 @@
       <c r="K589" s="1"/>
       <c r="L589" s="1"/>
     </row>
-    <row r="590" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -8784,7 +8789,7 @@
       <c r="K590" s="1"/>
       <c r="L590" s="1"/>
     </row>
-    <row r="591" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -8798,7 +8803,7 @@
       <c r="K591" s="1"/>
       <c r="L591" s="1"/>
     </row>
-    <row r="592" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -8812,7 +8817,7 @@
       <c r="K592" s="1"/>
       <c r="L592" s="1"/>
     </row>
-    <row r="593" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -8826,7 +8831,7 @@
       <c r="K593" s="1"/>
       <c r="L593" s="1"/>
     </row>
-    <row r="594" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -8840,7 +8845,7 @@
       <c r="K594" s="1"/>
       <c r="L594" s="1"/>
     </row>
-    <row r="595" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -8854,7 +8859,7 @@
       <c r="K595" s="1"/>
       <c r="L595" s="1"/>
     </row>
-    <row r="596" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -8868,7 +8873,7 @@
       <c r="K596" s="1"/>
       <c r="L596" s="1"/>
     </row>
-    <row r="597" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -8882,7 +8887,7 @@
       <c r="K597" s="1"/>
       <c r="L597" s="1"/>
     </row>
-    <row r="598" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -8896,7 +8901,7 @@
       <c r="K598" s="1"/>
       <c r="L598" s="1"/>
     </row>
-    <row r="599" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -8910,7 +8915,7 @@
       <c r="K599" s="1"/>
       <c r="L599" s="1"/>
     </row>
-    <row r="600" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -8924,7 +8929,7 @@
       <c r="K600" s="1"/>
       <c r="L600" s="1"/>
     </row>
-    <row r="601" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -8938,7 +8943,7 @@
       <c r="K601" s="1"/>
       <c r="L601" s="1"/>
     </row>
-    <row r="602" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -8952,7 +8957,7 @@
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
     </row>
-    <row r="603" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -8966,7 +8971,7 @@
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
     </row>
-    <row r="604" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -8980,7 +8985,7 @@
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
     </row>
-    <row r="605" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -8994,7 +8999,7 @@
       <c r="K605" s="1"/>
       <c r="L605" s="1"/>
     </row>
-    <row r="606" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -9008,7 +9013,7 @@
       <c r="K606" s="1"/>
       <c r="L606" s="1"/>
     </row>
-    <row r="607" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -9022,7 +9027,7 @@
       <c r="K607" s="1"/>
       <c r="L607" s="1"/>
     </row>
-    <row r="608" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -9036,7 +9041,7 @@
       <c r="K608" s="1"/>
       <c r="L608" s="1"/>
     </row>
-    <row r="609" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -9050,7 +9055,7 @@
       <c r="K609" s="1"/>
       <c r="L609" s="1"/>
     </row>
-    <row r="610" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -9064,7 +9069,7 @@
       <c r="K610" s="1"/>
       <c r="L610" s="1"/>
     </row>
-    <row r="611" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -9078,7 +9083,7 @@
       <c r="K611" s="1"/>
       <c r="L611" s="1"/>
     </row>
-    <row r="612" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -9092,7 +9097,7 @@
       <c r="K612" s="1"/>
       <c r="L612" s="1"/>
     </row>
-    <row r="613" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -9106,7 +9111,7 @@
       <c r="K613" s="1"/>
       <c r="L613" s="1"/>
     </row>
-    <row r="614" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -9120,7 +9125,7 @@
       <c r="K614" s="1"/>
       <c r="L614" s="1"/>
     </row>
-    <row r="615" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -9134,7 +9139,7 @@
       <c r="K615" s="1"/>
       <c r="L615" s="1"/>
     </row>
-    <row r="616" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -9148,7 +9153,7 @@
       <c r="K616" s="1"/>
       <c r="L616" s="1"/>
     </row>
-    <row r="617" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -9162,7 +9167,7 @@
       <c r="K617" s="1"/>
       <c r="L617" s="1"/>
     </row>
-    <row r="618" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -9176,7 +9181,7 @@
       <c r="K618" s="1"/>
       <c r="L618" s="1"/>
     </row>
-    <row r="619" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -9190,7 +9195,7 @@
       <c r="K619" s="1"/>
       <c r="L619" s="1"/>
     </row>
-    <row r="620" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -9204,7 +9209,7 @@
       <c r="K620" s="1"/>
       <c r="L620" s="1"/>
     </row>
-    <row r="621" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -9218,7 +9223,7 @@
       <c r="K621" s="1"/>
       <c r="L621" s="1"/>
     </row>
-    <row r="622" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -9232,7 +9237,7 @@
       <c r="K622" s="1"/>
       <c r="L622" s="1"/>
     </row>
-    <row r="623" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -9246,7 +9251,7 @@
       <c r="K623" s="1"/>
       <c r="L623" s="1"/>
     </row>
-    <row r="624" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -9260,7 +9265,7 @@
       <c r="K624" s="1"/>
       <c r="L624" s="1"/>
     </row>
-    <row r="625" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -9274,7 +9279,7 @@
       <c r="K625" s="1"/>
       <c r="L625" s="1"/>
     </row>
-    <row r="626" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -9288,7 +9293,7 @@
       <c r="K626" s="1"/>
       <c r="L626" s="1"/>
     </row>
-    <row r="627" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -9302,7 +9307,7 @@
       <c r="K627" s="1"/>
       <c r="L627" s="1"/>
     </row>
-    <row r="628" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -9316,7 +9321,7 @@
       <c r="K628" s="1"/>
       <c r="L628" s="1"/>
     </row>
-    <row r="629" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -9330,7 +9335,7 @@
       <c r="K629" s="1"/>
       <c r="L629" s="1"/>
     </row>
-    <row r="630" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -9344,7 +9349,7 @@
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
     </row>
-    <row r="631" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -9358,7 +9363,7 @@
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
     </row>
-    <row r="632" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -9372,7 +9377,7 @@
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
     </row>
-    <row r="633" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -9386,7 +9391,7 @@
       <c r="K633" s="1"/>
       <c r="L633" s="1"/>
     </row>
-    <row r="634" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -9400,7 +9405,7 @@
       <c r="K634" s="1"/>
       <c r="L634" s="1"/>
     </row>
-    <row r="635" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -9414,7 +9419,7 @@
       <c r="K635" s="1"/>
       <c r="L635" s="1"/>
     </row>
-    <row r="636" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -9428,7 +9433,7 @@
       <c r="K636" s="1"/>
       <c r="L636" s="1"/>
     </row>
-    <row r="637" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -9442,7 +9447,7 @@
       <c r="K637" s="1"/>
       <c r="L637" s="1"/>
     </row>
-    <row r="638" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -9456,7 +9461,7 @@
       <c r="K638" s="1"/>
       <c r="L638" s="1"/>
     </row>
-    <row r="639" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -9470,7 +9475,7 @@
       <c r="K639" s="1"/>
       <c r="L639" s="1"/>
     </row>
-    <row r="640" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -9484,7 +9489,7 @@
       <c r="K640" s="1"/>
       <c r="L640" s="1"/>
     </row>
-    <row r="641" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -9498,7 +9503,7 @@
       <c r="K641" s="1"/>
       <c r="L641" s="1"/>
     </row>
-    <row r="642" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -9512,7 +9517,7 @@
       <c r="K642" s="1"/>
       <c r="L642" s="1"/>
     </row>
-    <row r="643" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -9526,7 +9531,7 @@
       <c r="K643" s="1"/>
       <c r="L643" s="1"/>
     </row>
-    <row r="644" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -9540,7 +9545,7 @@
       <c r="K644" s="1"/>
       <c r="L644" s="1"/>
     </row>
-    <row r="645" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -9554,7 +9559,7 @@
       <c r="K645" s="1"/>
       <c r="L645" s="1"/>
     </row>
-    <row r="646" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -9568,7 +9573,7 @@
       <c r="K646" s="1"/>
       <c r="L646" s="1"/>
     </row>
-    <row r="647" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -9582,7 +9587,7 @@
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
     </row>
-    <row r="648" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -9596,7 +9601,7 @@
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
     </row>
-    <row r="649" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -9610,7 +9615,7 @@
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
     </row>
-    <row r="650" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -9624,7 +9629,7 @@
       <c r="K650" s="1"/>
       <c r="L650" s="1"/>
     </row>
-    <row r="651" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -9638,7 +9643,7 @@
       <c r="K651" s="1"/>
       <c r="L651" s="1"/>
     </row>
-    <row r="652" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -9652,7 +9657,7 @@
       <c r="K652" s="1"/>
       <c r="L652" s="1"/>
     </row>
-    <row r="653" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -9666,7 +9671,7 @@
       <c r="K653" s="1"/>
       <c r="L653" s="1"/>
     </row>
-    <row r="654" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -9680,7 +9685,7 @@
       <c r="K654" s="1"/>
       <c r="L654" s="1"/>
     </row>
-    <row r="655" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -9694,7 +9699,7 @@
       <c r="K655" s="1"/>
       <c r="L655" s="1"/>
     </row>
-    <row r="656" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -9708,7 +9713,7 @@
       <c r="K656" s="1"/>
       <c r="L656" s="1"/>
     </row>
-    <row r="657" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -9722,7 +9727,7 @@
       <c r="K657" s="1"/>
       <c r="L657" s="1"/>
     </row>
-    <row r="658" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -9736,7 +9741,7 @@
       <c r="K658" s="1"/>
       <c r="L658" s="1"/>
     </row>
-    <row r="659" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -9750,7 +9755,7 @@
       <c r="K659" s="1"/>
       <c r="L659" s="1"/>
     </row>
-    <row r="660" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -9764,7 +9769,7 @@
       <c r="K660" s="1"/>
       <c r="L660" s="1"/>
     </row>
-    <row r="661" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -9778,7 +9783,7 @@
       <c r="K661" s="1"/>
       <c r="L661" s="1"/>
     </row>
-    <row r="662" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -9792,7 +9797,7 @@
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
     </row>
-    <row r="663" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -9806,7 +9811,7 @@
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
     </row>
-    <row r="664" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -9820,7 +9825,7 @@
       <c r="K664" s="1"/>
       <c r="L664" s="1"/>
     </row>
-    <row r="665" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -9834,7 +9839,7 @@
       <c r="K665" s="1"/>
       <c r="L665" s="1"/>
     </row>
-    <row r="666" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -9848,7 +9853,7 @@
       <c r="K666" s="1"/>
       <c r="L666" s="1"/>
     </row>
-    <row r="667" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -9862,7 +9867,7 @@
       <c r="K667" s="1"/>
       <c r="L667" s="1"/>
     </row>
-    <row r="668" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -9876,7 +9881,7 @@
       <c r="K668" s="1"/>
       <c r="L668" s="1"/>
     </row>
-    <row r="669" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -9890,7 +9895,7 @@
       <c r="K669" s="1"/>
       <c r="L669" s="1"/>
     </row>
-    <row r="670" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -9904,7 +9909,7 @@
       <c r="K670" s="1"/>
       <c r="L670" s="1"/>
     </row>
-    <row r="671" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -9918,7 +9923,7 @@
       <c r="K671" s="1"/>
       <c r="L671" s="1"/>
     </row>
-    <row r="672" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -9932,7 +9937,7 @@
       <c r="K672" s="1"/>
       <c r="L672" s="1"/>
     </row>
-    <row r="673" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -9946,7 +9951,7 @@
       <c r="K673" s="1"/>
       <c r="L673" s="1"/>
     </row>
-    <row r="674" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -9960,7 +9965,7 @@
       <c r="K674" s="1"/>
       <c r="L674" s="1"/>
     </row>
-    <row r="675" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -9974,7 +9979,7 @@
       <c r="K675" s="1"/>
       <c r="L675" s="1"/>
     </row>
-    <row r="676" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -9988,7 +9993,7 @@
       <c r="K676" s="1"/>
       <c r="L676" s="1"/>
     </row>
-    <row r="677" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -10002,7 +10007,7 @@
       <c r="K677" s="1"/>
       <c r="L677" s="1"/>
     </row>
-    <row r="678" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -10016,7 +10021,7 @@
       <c r="K678" s="1"/>
       <c r="L678" s="1"/>
     </row>
-    <row r="679" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -10030,7 +10035,7 @@
       <c r="K679" s="1"/>
       <c r="L679" s="1"/>
     </row>
-    <row r="680" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -10044,7 +10049,7 @@
       <c r="K680" s="1"/>
       <c r="L680" s="1"/>
     </row>
-    <row r="681" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -10058,7 +10063,7 @@
       <c r="K681" s="1"/>
       <c r="L681" s="1"/>
     </row>
-    <row r="682" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -10072,7 +10077,7 @@
       <c r="K682" s="1"/>
       <c r="L682" s="1"/>
     </row>
-    <row r="683" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -10086,7 +10091,7 @@
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
     </row>
-    <row r="684" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -10100,7 +10105,7 @@
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
     </row>
-    <row r="685" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -10114,7 +10119,7 @@
       <c r="K685" s="1"/>
       <c r="L685" s="1"/>
     </row>
-    <row r="686" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -10128,7 +10133,7 @@
       <c r="K686" s="1"/>
       <c r="L686" s="1"/>
     </row>
-    <row r="687" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -10142,7 +10147,7 @@
       <c r="K687" s="1"/>
       <c r="L687" s="1"/>
     </row>
-    <row r="688" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -10156,7 +10161,7 @@
       <c r="K688" s="1"/>
       <c r="L688" s="1"/>
     </row>
-    <row r="689" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -10170,7 +10175,7 @@
       <c r="K689" s="1"/>
       <c r="L689" s="1"/>
     </row>
-    <row r="690" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -10184,7 +10189,7 @@
       <c r="K690" s="1"/>
       <c r="L690" s="1"/>
     </row>
-    <row r="691" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -10198,7 +10203,7 @@
       <c r="K691" s="1"/>
       <c r="L691" s="1"/>
     </row>
-    <row r="692" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -10212,7 +10217,7 @@
       <c r="K692" s="1"/>
       <c r="L692" s="1"/>
     </row>
-    <row r="693" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -10226,7 +10231,7 @@
       <c r="K693" s="1"/>
       <c r="L693" s="1"/>
     </row>
-    <row r="694" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -10240,7 +10245,7 @@
       <c r="K694" s="1"/>
       <c r="L694" s="1"/>
     </row>
-    <row r="695" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -10254,7 +10259,7 @@
       <c r="K695" s="1"/>
       <c r="L695" s="1"/>
     </row>
-    <row r="696" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -10268,7 +10273,7 @@
       <c r="K696" s="1"/>
       <c r="L696" s="1"/>
     </row>
-    <row r="697" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -10282,7 +10287,7 @@
       <c r="K697" s="1"/>
       <c r="L697" s="1"/>
     </row>
-    <row r="698" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -10296,7 +10301,7 @@
       <c r="K698" s="1"/>
       <c r="L698" s="1"/>
     </row>
-    <row r="699" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -10310,7 +10315,7 @@
       <c r="K699" s="1"/>
       <c r="L699" s="1"/>
     </row>
-    <row r="700" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -10324,7 +10329,7 @@
       <c r="K700" s="1"/>
       <c r="L700" s="1"/>
     </row>
-    <row r="701" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -10338,7 +10343,7 @@
       <c r="K701" s="1"/>
       <c r="L701" s="1"/>
     </row>
-    <row r="702" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -10352,7 +10357,7 @@
       <c r="K702" s="1"/>
       <c r="L702" s="1"/>
     </row>
-    <row r="703" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -10366,7 +10371,7 @@
       <c r="K703" s="1"/>
       <c r="L703" s="1"/>
     </row>
-    <row r="704" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -10380,7 +10385,7 @@
       <c r="K704" s="1"/>
       <c r="L704" s="1"/>
     </row>
-    <row r="705" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -10394,7 +10399,7 @@
       <c r="K705" s="1"/>
       <c r="L705" s="1"/>
     </row>
-    <row r="706" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -10408,7 +10413,7 @@
       <c r="K706" s="1"/>
       <c r="L706" s="1"/>
     </row>
-    <row r="707" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -10422,7 +10427,7 @@
       <c r="K707" s="1"/>
       <c r="L707" s="1"/>
     </row>
-    <row r="708" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -10436,7 +10441,7 @@
       <c r="K708" s="1"/>
       <c r="L708" s="1"/>
     </row>
-    <row r="709" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -10450,7 +10455,7 @@
       <c r="K709" s="1"/>
       <c r="L709" s="1"/>
     </row>
-    <row r="710" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -10464,7 +10469,7 @@
       <c r="K710" s="1"/>
       <c r="L710" s="1"/>
     </row>
-    <row r="711" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -10478,7 +10483,7 @@
       <c r="K711" s="1"/>
       <c r="L711" s="1"/>
     </row>
-    <row r="712" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -10492,7 +10497,7 @@
       <c r="K712" s="1"/>
       <c r="L712" s="1"/>
     </row>
-    <row r="713" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -10506,7 +10511,7 @@
       <c r="K713" s="1"/>
       <c r="L713" s="1"/>
     </row>
-    <row r="714" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -10520,7 +10525,7 @@
       <c r="K714" s="1"/>
       <c r="L714" s="1"/>
     </row>
-    <row r="715" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -10534,7 +10539,7 @@
       <c r="K715" s="1"/>
       <c r="L715" s="1"/>
     </row>
-    <row r="716" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -10548,7 +10553,7 @@
       <c r="K716" s="1"/>
       <c r="L716" s="1"/>
     </row>
-    <row r="717" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -10562,7 +10567,7 @@
       <c r="K717" s="1"/>
       <c r="L717" s="1"/>
     </row>
-    <row r="718" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -10576,7 +10581,7 @@
       <c r="K718" s="1"/>
       <c r="L718" s="1"/>
     </row>
-    <row r="719" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -10590,7 +10595,7 @@
       <c r="K719" s="1"/>
       <c r="L719" s="1"/>
     </row>
-    <row r="720" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -10604,7 +10609,7 @@
       <c r="K720" s="1"/>
       <c r="L720" s="1"/>
     </row>
-    <row r="721" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -10618,7 +10623,7 @@
       <c r="K721" s="1"/>
       <c r="L721" s="1"/>
     </row>
-    <row r="722" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -10632,7 +10637,7 @@
       <c r="K722" s="1"/>
       <c r="L722" s="1"/>
     </row>
-    <row r="723" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -10646,7 +10651,7 @@
       <c r="K723" s="1"/>
       <c r="L723" s="1"/>
     </row>
-    <row r="724" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -10660,7 +10665,7 @@
       <c r="K724" s="1"/>
       <c r="L724" s="1"/>
     </row>
-    <row r="725" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -10674,7 +10679,7 @@
       <c r="K725" s="1"/>
       <c r="L725" s="1"/>
     </row>
-    <row r="726" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -10688,7 +10693,7 @@
       <c r="K726" s="1"/>
       <c r="L726" s="1"/>
     </row>
-    <row r="727" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -10702,7 +10707,7 @@
       <c r="K727" s="1"/>
       <c r="L727" s="1"/>
     </row>
-    <row r="728" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -10716,7 +10721,7 @@
       <c r="K728" s="1"/>
       <c r="L728" s="1"/>
     </row>
-    <row r="729" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -10730,7 +10735,7 @@
       <c r="K729" s="1"/>
       <c r="L729" s="1"/>
     </row>
-    <row r="730" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -10744,7 +10749,7 @@
       <c r="K730" s="1"/>
       <c r="L730" s="1"/>
     </row>
-    <row r="731" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -10758,7 +10763,7 @@
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
     </row>
-    <row r="732" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -10772,7 +10777,7 @@
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
     </row>
-    <row r="733" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -10786,7 +10791,7 @@
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
     </row>
-    <row r="734" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -10800,7 +10805,7 @@
       <c r="K734" s="1"/>
       <c r="L734" s="1"/>
     </row>
-    <row r="735" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -10814,7 +10819,7 @@
       <c r="K735" s="1"/>
       <c r="L735" s="1"/>
     </row>
-    <row r="736" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -10828,7 +10833,7 @@
       <c r="K736" s="1"/>
       <c r="L736" s="1"/>
     </row>
-    <row r="737" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -10842,7 +10847,7 @@
       <c r="K737" s="1"/>
       <c r="L737" s="1"/>
     </row>
-    <row r="738" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -10856,7 +10861,7 @@
       <c r="K738" s="1"/>
       <c r="L738" s="1"/>
     </row>
-    <row r="739" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -10870,7 +10875,7 @@
       <c r="K739" s="1"/>
       <c r="L739" s="1"/>
     </row>
-    <row r="740" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -10884,7 +10889,7 @@
       <c r="K740" s="1"/>
       <c r="L740" s="1"/>
     </row>
-    <row r="741" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -10898,7 +10903,7 @@
       <c r="K741" s="1"/>
       <c r="L741" s="1"/>
     </row>
-    <row r="742" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -10912,7 +10917,7 @@
       <c r="K742" s="1"/>
       <c r="L742" s="1"/>
     </row>
-    <row r="743" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -10926,7 +10931,7 @@
       <c r="K743" s="1"/>
       <c r="L743" s="1"/>
     </row>
-    <row r="744" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -10940,7 +10945,7 @@
       <c r="K744" s="1"/>
       <c r="L744" s="1"/>
     </row>
-    <row r="745" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -10954,7 +10959,7 @@
       <c r="K745" s="1"/>
       <c r="L745" s="1"/>
     </row>
-    <row r="746" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -10968,7 +10973,7 @@
       <c r="K746" s="1"/>
       <c r="L746" s="1"/>
     </row>
-    <row r="747" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -10982,7 +10987,7 @@
       <c r="K747" s="1"/>
       <c r="L747" s="1"/>
     </row>
-    <row r="748" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -10996,7 +11001,7 @@
       <c r="K748" s="1"/>
       <c r="L748" s="1"/>
     </row>
-    <row r="749" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -11010,7 +11015,7 @@
       <c r="K749" s="1"/>
       <c r="L749" s="1"/>
     </row>
-    <row r="750" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -11024,7 +11029,7 @@
       <c r="K750" s="1"/>
       <c r="L750" s="1"/>
     </row>
-    <row r="751" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -11038,7 +11043,7 @@
       <c r="K751" s="1"/>
       <c r="L751" s="1"/>
     </row>
-    <row r="752" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -11052,7 +11057,7 @@
       <c r="K752" s="1"/>
       <c r="L752" s="1"/>
     </row>
-    <row r="753" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -11066,7 +11071,7 @@
       <c r="K753" s="1"/>
       <c r="L753" s="1"/>
     </row>
-    <row r="754" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -11080,7 +11085,7 @@
       <c r="K754" s="1"/>
       <c r="L754" s="1"/>
     </row>
-    <row r="755" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -11094,7 +11099,7 @@
       <c r="K755" s="1"/>
       <c r="L755" s="1"/>
     </row>
-    <row r="756" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -11108,7 +11113,7 @@
       <c r="K756" s="1"/>
       <c r="L756" s="1"/>
     </row>
-    <row r="757" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -11122,7 +11127,7 @@
       <c r="K757" s="1"/>
       <c r="L757" s="1"/>
     </row>
-    <row r="758" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -11136,7 +11141,7 @@
       <c r="K758" s="1"/>
       <c r="L758" s="1"/>
     </row>
-    <row r="759" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -11150,7 +11155,7 @@
       <c r="K759" s="1"/>
       <c r="L759" s="1"/>
     </row>
-    <row r="760" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -11164,7 +11169,7 @@
       <c r="K760" s="1"/>
       <c r="L760" s="1"/>
     </row>
-    <row r="761" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -11178,7 +11183,7 @@
       <c r="K761" s="1"/>
       <c r="L761" s="1"/>
     </row>
-    <row r="762" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -11192,7 +11197,7 @@
       <c r="K762" s="1"/>
       <c r="L762" s="1"/>
     </row>
-    <row r="763" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -11206,7 +11211,7 @@
       <c r="K763" s="1"/>
       <c r="L763" s="1"/>
     </row>
-    <row r="764" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -11220,7 +11225,7 @@
       <c r="K764" s="1"/>
       <c r="L764" s="1"/>
     </row>
-    <row r="765" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -11234,7 +11239,7 @@
       <c r="K765" s="1"/>
       <c r="L765" s="1"/>
     </row>
-    <row r="766" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -11248,7 +11253,7 @@
       <c r="K766" s="1"/>
       <c r="L766" s="1"/>
     </row>
-    <row r="767" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -11262,7 +11267,7 @@
       <c r="K767" s="1"/>
       <c r="L767" s="1"/>
     </row>
-    <row r="768" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -11276,7 +11281,7 @@
       <c r="K768" s="1"/>
       <c r="L768" s="1"/>
     </row>
-    <row r="769" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -11290,7 +11295,7 @@
       <c r="K769" s="1"/>
       <c r="L769" s="1"/>
     </row>
-    <row r="770" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -11304,7 +11309,7 @@
       <c r="K770" s="1"/>
       <c r="L770" s="1"/>
     </row>
-    <row r="771" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -11318,7 +11323,7 @@
       <c r="K771" s="1"/>
       <c r="L771" s="1"/>
     </row>
-    <row r="772" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -11332,7 +11337,7 @@
       <c r="K772" s="1"/>
       <c r="L772" s="1"/>
     </row>
-    <row r="773" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -11346,7 +11351,7 @@
       <c r="K773" s="1"/>
       <c r="L773" s="1"/>
     </row>
-    <row r="774" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -11360,7 +11365,7 @@
       <c r="K774" s="1"/>
       <c r="L774" s="1"/>
     </row>
-    <row r="775" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -11374,7 +11379,7 @@
       <c r="K775" s="1"/>
       <c r="L775" s="1"/>
     </row>
-    <row r="776" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -11388,7 +11393,7 @@
       <c r="K776" s="1"/>
       <c r="L776" s="1"/>
     </row>
-    <row r="777" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -11402,7 +11407,7 @@
       <c r="K777" s="1"/>
       <c r="L777" s="1"/>
     </row>
-    <row r="778" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -11416,7 +11421,7 @@
       <c r="K778" s="1"/>
       <c r="L778" s="1"/>
     </row>
-    <row r="779" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -11430,7 +11435,7 @@
       <c r="K779" s="1"/>
       <c r="L779" s="1"/>
     </row>
-    <row r="780" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -11444,7 +11449,7 @@
       <c r="K780" s="1"/>
       <c r="L780" s="1"/>
     </row>
-    <row r="781" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -11458,7 +11463,7 @@
       <c r="K781" s="1"/>
       <c r="L781" s="1"/>
     </row>
-    <row r="782" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -11472,7 +11477,7 @@
       <c r="K782" s="1"/>
       <c r="L782" s="1"/>
     </row>
-    <row r="783" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -11486,7 +11491,7 @@
       <c r="K783" s="1"/>
       <c r="L783" s="1"/>
     </row>
-    <row r="784" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -11500,7 +11505,7 @@
       <c r="K784" s="1"/>
       <c r="L784" s="1"/>
     </row>
-    <row r="785" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -11514,7 +11519,7 @@
       <c r="K785" s="1"/>
       <c r="L785" s="1"/>
     </row>
-    <row r="786" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -11528,7 +11533,7 @@
       <c r="K786" s="1"/>
       <c r="L786" s="1"/>
     </row>
-    <row r="787" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -11542,7 +11547,7 @@
       <c r="K787" s="1"/>
       <c r="L787" s="1"/>
     </row>
-    <row r="788" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -11556,7 +11561,7 @@
       <c r="K788" s="1"/>
       <c r="L788" s="1"/>
     </row>
-    <row r="789" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -11570,7 +11575,7 @@
       <c r="K789" s="1"/>
       <c r="L789" s="1"/>
     </row>
-    <row r="790" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -11584,7 +11589,7 @@
       <c r="K790" s="1"/>
       <c r="L790" s="1"/>
     </row>
-    <row r="791" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -11598,7 +11603,7 @@
       <c r="K791" s="1"/>
       <c r="L791" s="1"/>
     </row>
-    <row r="792" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -11612,7 +11617,7 @@
       <c r="K792" s="1"/>
       <c r="L792" s="1"/>
     </row>
-    <row r="793" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -11626,7 +11631,7 @@
       <c r="K793" s="1"/>
       <c r="L793" s="1"/>
     </row>
-    <row r="794" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -11640,7 +11645,7 @@
       <c r="K794" s="1"/>
       <c r="L794" s="1"/>
     </row>
-    <row r="795" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -11654,7 +11659,7 @@
       <c r="K795" s="1"/>
       <c r="L795" s="1"/>
     </row>
-    <row r="796" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -11668,7 +11673,7 @@
       <c r="K796" s="1"/>
       <c r="L796" s="1"/>
     </row>
-    <row r="797" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -11682,7 +11687,7 @@
       <c r="K797" s="1"/>
       <c r="L797" s="1"/>
     </row>
-    <row r="798" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -11696,7 +11701,7 @@
       <c r="K798" s="1"/>
       <c r="L798" s="1"/>
     </row>
-    <row r="799" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -11710,7 +11715,7 @@
       <c r="K799" s="1"/>
       <c r="L799" s="1"/>
     </row>
-    <row r="800" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -11724,7 +11729,7 @@
       <c r="K800" s="1"/>
       <c r="L800" s="1"/>
     </row>
-    <row r="801" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -11738,7 +11743,7 @@
       <c r="K801" s="1"/>
       <c r="L801" s="1"/>
     </row>
-    <row r="802" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -11752,7 +11757,7 @@
       <c r="K802" s="1"/>
       <c r="L802" s="1"/>
     </row>
-    <row r="803" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -11766,7 +11771,7 @@
       <c r="K803" s="1"/>
       <c r="L803" s="1"/>
     </row>
-    <row r="804" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -11780,7 +11785,7 @@
       <c r="K804" s="1"/>
       <c r="L804" s="1"/>
     </row>
-    <row r="805" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -11794,7 +11799,7 @@
       <c r="K805" s="1"/>
       <c r="L805" s="1"/>
     </row>
-    <row r="806" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -11808,7 +11813,7 @@
       <c r="K806" s="1"/>
       <c r="L806" s="1"/>
     </row>
-    <row r="807" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -11822,7 +11827,7 @@
       <c r="K807" s="1"/>
       <c r="L807" s="1"/>
     </row>
-    <row r="808" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -11836,7 +11841,7 @@
       <c r="K808" s="1"/>
       <c r="L808" s="1"/>
     </row>
-    <row r="809" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -11850,7 +11855,7 @@
       <c r="K809" s="1"/>
       <c r="L809" s="1"/>
     </row>
-    <row r="810" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -11864,7 +11869,7 @@
       <c r="K810" s="1"/>
       <c r="L810" s="1"/>
     </row>
-    <row r="811" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -11878,7 +11883,7 @@
       <c r="K811" s="1"/>
       <c r="L811" s="1"/>
     </row>
-    <row r="812" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -11892,7 +11897,7 @@
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
     </row>
-    <row r="813" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -11906,7 +11911,7 @@
       <c r="K813" s="1"/>
       <c r="L813" s="1"/>
     </row>
-    <row r="814" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -11920,7 +11925,7 @@
       <c r="K814" s="1"/>
       <c r="L814" s="1"/>
     </row>
-    <row r="815" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -11934,7 +11939,7 @@
       <c r="K815" s="1"/>
       <c r="L815" s="1"/>
     </row>
-    <row r="816" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -11948,7 +11953,7 @@
       <c r="K816" s="1"/>
       <c r="L816" s="1"/>
     </row>
-    <row r="817" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -11962,7 +11967,7 @@
       <c r="K817" s="1"/>
       <c r="L817" s="1"/>
     </row>
-    <row r="818" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -11976,7 +11981,7 @@
       <c r="K818" s="1"/>
       <c r="L818" s="1"/>
     </row>
-    <row r="819" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -11990,7 +11995,7 @@
       <c r="K819" s="1"/>
       <c r="L819" s="1"/>
     </row>
-    <row r="820" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -12004,7 +12009,7 @@
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
     </row>
-    <row r="821" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -12018,7 +12023,7 @@
       <c r="K821" s="1"/>
       <c r="L821" s="1"/>
     </row>
-    <row r="822" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -12032,7 +12037,7 @@
       <c r="K822" s="1"/>
       <c r="L822" s="1"/>
     </row>
-    <row r="823" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -12046,7 +12051,7 @@
       <c r="K823" s="1"/>
       <c r="L823" s="1"/>
     </row>
-    <row r="824" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -12060,7 +12065,7 @@
       <c r="K824" s="1"/>
       <c r="L824" s="1"/>
     </row>
-    <row r="825" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -12074,7 +12079,7 @@
       <c r="K825" s="1"/>
       <c r="L825" s="1"/>
     </row>
-    <row r="826" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -12088,7 +12093,7 @@
       <c r="K826" s="1"/>
       <c r="L826" s="1"/>
     </row>
-    <row r="827" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -12102,7 +12107,7 @@
       <c r="K827" s="1"/>
       <c r="L827" s="1"/>
     </row>
-    <row r="828" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -12116,7 +12121,7 @@
       <c r="K828" s="1"/>
       <c r="L828" s="1"/>
     </row>
-    <row r="829" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -12130,7 +12135,7 @@
       <c r="K829" s="1"/>
       <c r="L829" s="1"/>
     </row>
-    <row r="830" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -12144,7 +12149,7 @@
       <c r="K830" s="1"/>
       <c r="L830" s="1"/>
     </row>
-    <row r="831" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -12158,7 +12163,7 @@
       <c r="K831" s="1"/>
       <c r="L831" s="1"/>
     </row>
-    <row r="832" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -12172,7 +12177,7 @@
       <c r="K832" s="1"/>
       <c r="L832" s="1"/>
     </row>
-    <row r="833" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -12186,7 +12191,7 @@
       <c r="K833" s="1"/>
       <c r="L833" s="1"/>
     </row>
-    <row r="834" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -12200,7 +12205,7 @@
       <c r="K834" s="1"/>
       <c r="L834" s="1"/>
     </row>
-    <row r="835" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -12214,7 +12219,7 @@
       <c r="K835" s="1"/>
       <c r="L835" s="1"/>
     </row>
-    <row r="836" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -12228,7 +12233,7 @@
       <c r="K836" s="1"/>
       <c r="L836" s="1"/>
     </row>
-    <row r="837" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -12242,7 +12247,7 @@
       <c r="K837" s="1"/>
       <c r="L837" s="1"/>
     </row>
-    <row r="838" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -12256,7 +12261,7 @@
       <c r="K838" s="1"/>
       <c r="L838" s="1"/>
     </row>
-    <row r="839" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -12270,7 +12275,7 @@
       <c r="K839" s="1"/>
       <c r="L839" s="1"/>
     </row>
-    <row r="840" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -12284,7 +12289,7 @@
       <c r="K840" s="1"/>
       <c r="L840" s="1"/>
     </row>
-    <row r="841" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -12298,7 +12303,7 @@
       <c r="K841" s="1"/>
       <c r="L841" s="1"/>
     </row>
-    <row r="842" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -12312,7 +12317,7 @@
       <c r="K842" s="1"/>
       <c r="L842" s="1"/>
     </row>
-    <row r="843" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -12326,7 +12331,7 @@
       <c r="K843" s="1"/>
       <c r="L843" s="1"/>
     </row>
-    <row r="844" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -12340,7 +12345,7 @@
       <c r="K844" s="1"/>
       <c r="L844" s="1"/>
     </row>
-    <row r="845" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -12354,7 +12359,7 @@
       <c r="K845" s="1"/>
       <c r="L845" s="1"/>
     </row>
-    <row r="846" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -12368,7 +12373,7 @@
       <c r="K846" s="1"/>
       <c r="L846" s="1"/>
     </row>
-    <row r="847" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -12382,7 +12387,7 @@
       <c r="K847" s="1"/>
       <c r="L847" s="1"/>
     </row>
-    <row r="848" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -12396,7 +12401,7 @@
       <c r="K848" s="1"/>
       <c r="L848" s="1"/>
     </row>
-    <row r="849" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -12410,7 +12415,7 @@
       <c r="K849" s="1"/>
       <c r="L849" s="1"/>
     </row>
-    <row r="850" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -12424,7 +12429,7 @@
       <c r="K850" s="1"/>
       <c r="L850" s="1"/>
     </row>
-    <row r="851" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -12438,7 +12443,7 @@
       <c r="K851" s="1"/>
       <c r="L851" s="1"/>
     </row>
-    <row r="852" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -12452,7 +12457,7 @@
       <c r="K852" s="1"/>
       <c r="L852" s="1"/>
     </row>
-    <row r="853" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -12466,7 +12471,7 @@
       <c r="K853" s="1"/>
       <c r="L853" s="1"/>
     </row>
-    <row r="854" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -12480,7 +12485,7 @@
       <c r="K854" s="1"/>
       <c r="L854" s="1"/>
     </row>
-    <row r="855" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -12494,7 +12499,7 @@
       <c r="K855" s="1"/>
       <c r="L855" s="1"/>
     </row>
-    <row r="856" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -12508,7 +12513,7 @@
       <c r="K856" s="1"/>
       <c r="L856" s="1"/>
     </row>
-    <row r="857" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -12522,7 +12527,7 @@
       <c r="K857" s="1"/>
       <c r="L857" s="1"/>
     </row>
-    <row r="858" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -12536,7 +12541,7 @@
       <c r="K858" s="1"/>
       <c r="L858" s="1"/>
     </row>
-    <row r="859" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -12550,7 +12555,7 @@
       <c r="K859" s="1"/>
       <c r="L859" s="1"/>
     </row>
-    <row r="860" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -12564,7 +12569,7 @@
       <c r="K860" s="1"/>
       <c r="L860" s="1"/>
     </row>
-    <row r="861" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -12578,7 +12583,7 @@
       <c r="K861" s="1"/>
       <c r="L861" s="1"/>
     </row>
-    <row r="862" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -12592,7 +12597,7 @@
       <c r="K862" s="1"/>
       <c r="L862" s="1"/>
     </row>
-    <row r="863" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -12606,7 +12611,7 @@
       <c r="K863" s="1"/>
       <c r="L863" s="1"/>
     </row>
-    <row r="864" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -12620,7 +12625,7 @@
       <c r="K864" s="1"/>
       <c r="L864" s="1"/>
     </row>
-    <row r="865" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -12634,7 +12639,7 @@
       <c r="K865" s="1"/>
       <c r="L865" s="1"/>
     </row>
-    <row r="866" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -12648,7 +12653,7 @@
       <c r="K866" s="1"/>
       <c r="L866" s="1"/>
     </row>
-    <row r="867" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -12662,7 +12667,7 @@
       <c r="K867" s="1"/>
       <c r="L867" s="1"/>
     </row>
-    <row r="868" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -12676,7 +12681,7 @@
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
     </row>
-    <row r="869" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -12690,7 +12695,7 @@
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
     </row>
-    <row r="870" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -12704,7 +12709,7 @@
       <c r="K870" s="1"/>
       <c r="L870" s="1"/>
     </row>
-    <row r="871" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -12718,7 +12723,7 @@
       <c r="K871" s="1"/>
       <c r="L871" s="1"/>
     </row>
-    <row r="872" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -12732,7 +12737,7 @@
       <c r="K872" s="1"/>
       <c r="L872" s="1"/>
     </row>
-    <row r="873" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -12746,7 +12751,7 @@
       <c r="K873" s="1"/>
       <c r="L873" s="1"/>
     </row>
-    <row r="874" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -12760,7 +12765,7 @@
       <c r="K874" s="1"/>
       <c r="L874" s="1"/>
     </row>
-    <row r="875" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -12774,7 +12779,7 @@
       <c r="K875" s="1"/>
       <c r="L875" s="1"/>
     </row>
-    <row r="876" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -12788,7 +12793,7 @@
       <c r="K876" s="1"/>
       <c r="L876" s="1"/>
     </row>
-    <row r="877" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -12802,7 +12807,7 @@
       <c r="K877" s="1"/>
       <c r="L877" s="1"/>
     </row>
-    <row r="878" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -12816,7 +12821,7 @@
       <c r="K878" s="1"/>
       <c r="L878" s="1"/>
     </row>
-    <row r="879" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -12830,7 +12835,7 @@
       <c r="K879" s="1"/>
       <c r="L879" s="1"/>
     </row>
-    <row r="880" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -12844,7 +12849,7 @@
       <c r="K880" s="1"/>
       <c r="L880" s="1"/>
     </row>
-    <row r="881" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -12858,7 +12863,7 @@
       <c r="K881" s="1"/>
       <c r="L881" s="1"/>
     </row>
-    <row r="882" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -12872,7 +12877,7 @@
       <c r="K882" s="1"/>
       <c r="L882" s="1"/>
     </row>
-    <row r="883" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -12886,7 +12891,7 @@
       <c r="K883" s="1"/>
       <c r="L883" s="1"/>
     </row>
-    <row r="884" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -12900,7 +12905,7 @@
       <c r="K884" s="1"/>
       <c r="L884" s="1"/>
     </row>
-    <row r="885" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -12914,7 +12919,7 @@
       <c r="K885" s="1"/>
       <c r="L885" s="1"/>
     </row>
-    <row r="886" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -12928,7 +12933,7 @@
       <c r="K886" s="1"/>
       <c r="L886" s="1"/>
     </row>
-    <row r="887" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -12942,7 +12947,7 @@
       <c r="K887" s="1"/>
       <c r="L887" s="1"/>
     </row>
-    <row r="888" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -12956,7 +12961,7 @@
       <c r="K888" s="1"/>
       <c r="L888" s="1"/>
     </row>
-    <row r="889" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -12970,7 +12975,7 @@
       <c r="K889" s="1"/>
       <c r="L889" s="1"/>
     </row>
-    <row r="890" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -12984,7 +12989,7 @@
       <c r="K890" s="1"/>
       <c r="L890" s="1"/>
     </row>
-    <row r="891" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -12998,7 +13003,7 @@
       <c r="K891" s="1"/>
       <c r="L891" s="1"/>
     </row>
-    <row r="892" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -13012,7 +13017,7 @@
       <c r="K892" s="1"/>
       <c r="L892" s="1"/>
     </row>
-    <row r="893" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -13026,7 +13031,7 @@
       <c r="K893" s="1"/>
       <c r="L893" s="1"/>
     </row>
-    <row r="894" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -13040,7 +13045,7 @@
       <c r="K894" s="1"/>
       <c r="L894" s="1"/>
     </row>
-    <row r="895" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -13054,7 +13059,7 @@
       <c r="K895" s="1"/>
       <c r="L895" s="1"/>
     </row>
-    <row r="896" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -13068,7 +13073,7 @@
       <c r="K896" s="1"/>
       <c r="L896" s="1"/>
     </row>
-    <row r="897" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -13082,7 +13087,7 @@
       <c r="K897" s="1"/>
       <c r="L897" s="1"/>
     </row>
-    <row r="898" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -13096,7 +13101,7 @@
       <c r="K898" s="1"/>
       <c r="L898" s="1"/>
     </row>
-    <row r="899" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -13110,7 +13115,7 @@
       <c r="K899" s="1"/>
       <c r="L899" s="1"/>
     </row>
-    <row r="900" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -13124,7 +13129,7 @@
       <c r="K900" s="1"/>
       <c r="L900" s="1"/>
     </row>
-    <row r="901" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -13138,7 +13143,7 @@
       <c r="K901" s="1"/>
       <c r="L901" s="1"/>
     </row>
-    <row r="902" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -13152,7 +13157,7 @@
       <c r="K902" s="1"/>
       <c r="L902" s="1"/>
     </row>
-    <row r="903" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -13166,7 +13171,7 @@
       <c r="K903" s="1"/>
       <c r="L903" s="1"/>
     </row>
-    <row r="904" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -13180,7 +13185,7 @@
       <c r="K904" s="1"/>
       <c r="L904" s="1"/>
     </row>
-    <row r="905" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -13194,7 +13199,7 @@
       <c r="K905" s="1"/>
       <c r="L905" s="1"/>
     </row>
-    <row r="906" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -13208,7 +13213,7 @@
       <c r="K906" s="1"/>
       <c r="L906" s="1"/>
     </row>
-    <row r="907" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -13222,7 +13227,7 @@
       <c r="K907" s="1"/>
       <c r="L907" s="1"/>
     </row>
-    <row r="908" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -13236,7 +13241,7 @@
       <c r="K908" s="1"/>
       <c r="L908" s="1"/>
     </row>
-    <row r="909" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -13250,7 +13255,7 @@
       <c r="K909" s="1"/>
       <c r="L909" s="1"/>
     </row>
-    <row r="910" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -13264,7 +13269,7 @@
       <c r="K910" s="1"/>
       <c r="L910" s="1"/>
     </row>
-    <row r="911" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -13278,7 +13283,7 @@
       <c r="K911" s="1"/>
       <c r="L911" s="1"/>
     </row>
-    <row r="912" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -13292,7 +13297,7 @@
       <c r="K912" s="1"/>
       <c r="L912" s="1"/>
     </row>
-    <row r="913" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -13306,7 +13311,7 @@
       <c r="K913" s="1"/>
       <c r="L913" s="1"/>
     </row>
-    <row r="914" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -13320,7 +13325,7 @@
       <c r="K914" s="1"/>
       <c r="L914" s="1"/>
     </row>
-    <row r="915" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -13334,7 +13339,7 @@
       <c r="K915" s="1"/>
       <c r="L915" s="1"/>
     </row>
-    <row r="916" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -13348,7 +13353,7 @@
       <c r="K916" s="1"/>
       <c r="L916" s="1"/>
     </row>
-    <row r="917" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -13362,7 +13367,7 @@
       <c r="K917" s="1"/>
       <c r="L917" s="1"/>
     </row>
-    <row r="918" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -13376,7 +13381,7 @@
       <c r="K918" s="1"/>
       <c r="L918" s="1"/>
     </row>
-    <row r="919" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -13390,7 +13395,7 @@
       <c r="K919" s="1"/>
       <c r="L919" s="1"/>
     </row>
-    <row r="920" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -13404,7 +13409,7 @@
       <c r="K920" s="1"/>
       <c r="L920" s="1"/>
     </row>
-    <row r="921" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -13418,7 +13423,7 @@
       <c r="K921" s="1"/>
       <c r="L921" s="1"/>
     </row>
-    <row r="922" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -13432,7 +13437,7 @@
       <c r="K922" s="1"/>
       <c r="L922" s="1"/>
     </row>
-    <row r="923" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -13446,7 +13451,7 @@
       <c r="K923" s="1"/>
       <c r="L923" s="1"/>
     </row>
-    <row r="924" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -13460,7 +13465,7 @@
       <c r="K924" s="1"/>
       <c r="L924" s="1"/>
     </row>
-    <row r="925" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -13474,7 +13479,7 @@
       <c r="K925" s="1"/>
       <c r="L925" s="1"/>
     </row>
-    <row r="926" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -13488,7 +13493,7 @@
       <c r="K926" s="1"/>
       <c r="L926" s="1"/>
     </row>
-    <row r="927" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -13502,7 +13507,7 @@
       <c r="K927" s="1"/>
       <c r="L927" s="1"/>
     </row>
-    <row r="928" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -13516,7 +13521,7 @@
       <c r="K928" s="1"/>
       <c r="L928" s="1"/>
     </row>
-    <row r="929" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -13530,7 +13535,7 @@
       <c r="K929" s="1"/>
       <c r="L929" s="1"/>
     </row>
-    <row r="930" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -13544,7 +13549,7 @@
       <c r="K930" s="1"/>
       <c r="L930" s="1"/>
     </row>
-    <row r="931" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -13558,7 +13563,7 @@
       <c r="K931" s="1"/>
       <c r="L931" s="1"/>
     </row>
-    <row r="932" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -13572,7 +13577,7 @@
       <c r="K932" s="1"/>
       <c r="L932" s="1"/>
     </row>
-    <row r="933" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -13586,7 +13591,7 @@
       <c r="K933" s="1"/>
       <c r="L933" s="1"/>
     </row>
-    <row r="934" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -13600,7 +13605,7 @@
       <c r="K934" s="1"/>
       <c r="L934" s="1"/>
     </row>
-    <row r="935" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -13614,7 +13619,7 @@
       <c r="K935" s="1"/>
       <c r="L935" s="1"/>
     </row>
-    <row r="936" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -13628,7 +13633,7 @@
       <c r="K936" s="1"/>
       <c r="L936" s="1"/>
     </row>
-    <row r="937" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -13642,7 +13647,7 @@
       <c r="K937" s="1"/>
       <c r="L937" s="1"/>
     </row>
-    <row r="938" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -13656,7 +13661,7 @@
       <c r="K938" s="1"/>
       <c r="L938" s="1"/>
     </row>
-    <row r="939" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -13670,7 +13675,7 @@
       <c r="K939" s="1"/>
       <c r="L939" s="1"/>
     </row>
-    <row r="940" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -13684,7 +13689,7 @@
       <c r="K940" s="1"/>
       <c r="L940" s="1"/>
     </row>
-    <row r="941" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -13698,7 +13703,7 @@
       <c r="K941" s="1"/>
       <c r="L941" s="1"/>
     </row>
-    <row r="942" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -13712,7 +13717,7 @@
       <c r="K942" s="1"/>
       <c r="L942" s="1"/>
     </row>
-    <row r="943" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -13726,7 +13731,7 @@
       <c r="K943" s="1"/>
       <c r="L943" s="1"/>
     </row>
-    <row r="944" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -13740,7 +13745,7 @@
       <c r="K944" s="1"/>
       <c r="L944" s="1"/>
     </row>
-    <row r="945" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -13754,7 +13759,7 @@
       <c r="K945" s="1"/>
       <c r="L945" s="1"/>
     </row>
-    <row r="946" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -13768,7 +13773,7 @@
       <c r="K946" s="1"/>
       <c r="L946" s="1"/>
     </row>
-    <row r="947" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -13782,7 +13787,7 @@
       <c r="K947" s="1"/>
       <c r="L947" s="1"/>
     </row>
-    <row r="948" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -13796,7 +13801,7 @@
       <c r="K948" s="1"/>
       <c r="L948" s="1"/>
     </row>
-    <row r="949" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -13810,7 +13815,7 @@
       <c r="K949" s="1"/>
       <c r="L949" s="1"/>
     </row>
-    <row r="950" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -13824,7 +13829,7 @@
       <c r="K950" s="1"/>
       <c r="L950" s="1"/>
     </row>
-    <row r="951" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -13838,7 +13843,7 @@
       <c r="K951" s="1"/>
       <c r="L951" s="1"/>
     </row>
-    <row r="952" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -13852,7 +13857,7 @@
       <c r="K952" s="1"/>
       <c r="L952" s="1"/>
     </row>
-    <row r="953" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -13866,7 +13871,7 @@
       <c r="K953" s="1"/>
       <c r="L953" s="1"/>
     </row>
-    <row r="954" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -13880,7 +13885,7 @@
       <c r="K954" s="1"/>
       <c r="L954" s="1"/>
     </row>
-    <row r="955" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -13894,7 +13899,7 @@
       <c r="K955" s="1"/>
       <c r="L955" s="1"/>
     </row>
-    <row r="956" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -13908,7 +13913,7 @@
       <c r="K956" s="1"/>
       <c r="L956" s="1"/>
     </row>
-    <row r="957" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -13922,7 +13927,7 @@
       <c r="K957" s="1"/>
       <c r="L957" s="1"/>
     </row>
-    <row r="958" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -13936,7 +13941,7 @@
       <c r="K958" s="1"/>
       <c r="L958" s="1"/>
     </row>
-    <row r="959" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -13950,7 +13955,7 @@
       <c r="K959" s="1"/>
       <c r="L959" s="1"/>
     </row>
-    <row r="960" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -13964,7 +13969,7 @@
       <c r="K960" s="1"/>
       <c r="L960" s="1"/>
     </row>
-    <row r="961" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -13978,7 +13983,7 @@
       <c r="K961" s="1"/>
       <c r="L961" s="1"/>
     </row>
-    <row r="962" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -13992,7 +13997,7 @@
       <c r="K962" s="1"/>
       <c r="L962" s="1"/>
     </row>
-    <row r="963" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -14006,7 +14011,7 @@
       <c r="K963" s="1"/>
       <c r="L963" s="1"/>
     </row>
-    <row r="964" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -14020,7 +14025,7 @@
       <c r="K964" s="1"/>
       <c r="L964" s="1"/>
     </row>
-    <row r="965" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -14034,7 +14039,7 @@
       <c r="K965" s="1"/>
       <c r="L965" s="1"/>
     </row>
-    <row r="966" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -14048,7 +14053,7 @@
       <c r="K966" s="1"/>
       <c r="L966" s="1"/>
     </row>
-    <row r="967" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -14062,7 +14067,7 @@
       <c r="K967" s="1"/>
       <c r="L967" s="1"/>
     </row>
-    <row r="968" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -14076,7 +14081,7 @@
       <c r="K968" s="1"/>
       <c r="L968" s="1"/>
     </row>
-    <row r="969" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -14090,7 +14095,7 @@
       <c r="K969" s="1"/>
       <c r="L969" s="1"/>
     </row>
-    <row r="970" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -14104,7 +14109,7 @@
       <c r="K970" s="1"/>
       <c r="L970" s="1"/>
     </row>
-    <row r="971" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -14118,7 +14123,7 @@
       <c r="K971" s="1"/>
       <c r="L971" s="1"/>
     </row>
-    <row r="972" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -14132,7 +14137,7 @@
       <c r="K972" s="1"/>
       <c r="L972" s="1"/>
     </row>
-    <row r="973" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -14146,7 +14151,7 @@
       <c r="K973" s="1"/>
       <c r="L973" s="1"/>
     </row>
-    <row r="974" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -14160,7 +14165,7 @@
       <c r="K974" s="1"/>
       <c r="L974" s="1"/>
     </row>
-    <row r="975" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -14174,7 +14179,7 @@
       <c r="K975" s="1"/>
       <c r="L975" s="1"/>
     </row>
-    <row r="976" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -14188,7 +14193,7 @@
       <c r="K976" s="1"/>
       <c r="L976" s="1"/>
     </row>
-    <row r="977" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -14202,7 +14207,7 @@
       <c r="K977" s="1"/>
       <c r="L977" s="1"/>
     </row>
-    <row r="978" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -14216,7 +14221,7 @@
       <c r="K978" s="1"/>
       <c r="L978" s="1"/>
     </row>
-    <row r="979" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -14230,7 +14235,7 @@
       <c r="K979" s="1"/>
       <c r="L979" s="1"/>
     </row>
-    <row r="980" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -14244,7 +14249,7 @@
       <c r="K980" s="1"/>
       <c r="L980" s="1"/>
     </row>
-    <row r="981" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -14258,7 +14263,7 @@
       <c r="K981" s="1"/>
       <c r="L981" s="1"/>
     </row>
-    <row r="982" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -14272,7 +14277,7 @@
       <c r="K982" s="1"/>
       <c r="L982" s="1"/>
     </row>
-    <row r="983" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -14286,7 +14291,7 @@
       <c r="K983" s="1"/>
       <c r="L983" s="1"/>
     </row>
-    <row r="984" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -14300,7 +14305,7 @@
       <c r="K984" s="1"/>
       <c r="L984" s="1"/>
     </row>
-    <row r="985" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -14314,7 +14319,7 @@
       <c r="K985" s="1"/>
       <c r="L985" s="1"/>
     </row>
-    <row r="986" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -14328,7 +14333,7 @@
       <c r="K986" s="1"/>
       <c r="L986" s="1"/>
     </row>
-    <row r="987" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -14342,7 +14347,7 @@
       <c r="K987" s="1"/>
       <c r="L987" s="1"/>
     </row>
-    <row r="988" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -14356,7 +14361,7 @@
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
     </row>
-    <row r="989" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -14370,7 +14375,7 @@
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
     </row>
-    <row r="990" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -14384,7 +14389,7 @@
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
     </row>
-    <row r="991" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -14398,7 +14403,7 @@
       <c r="K991" s="1"/>
       <c r="L991" s="1"/>
     </row>
-    <row r="992" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -14412,7 +14417,7 @@
       <c r="K992" s="1"/>
       <c r="L992" s="1"/>
     </row>
-    <row r="993" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -14426,7 +14431,7 @@
       <c r="K993" s="1"/>
       <c r="L993" s="1"/>
     </row>
-    <row r="994" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -14440,7 +14445,7 @@
       <c r="K994" s="1"/>
       <c r="L994" s="1"/>
     </row>
-    <row r="995" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -14454,7 +14459,7 @@
       <c r="K995" s="1"/>
       <c r="L995" s="1"/>
     </row>
-    <row r="996" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -14468,7 +14473,7 @@
       <c r="K996" s="1"/>
       <c r="L996" s="1"/>
     </row>
-    <row r="997" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -14482,7 +14487,7 @@
       <c r="K997" s="1"/>
       <c r="L997" s="1"/>
     </row>
-    <row r="998" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -14496,7 +14501,7 @@
       <c r="K998" s="1"/>
       <c r="L998" s="1"/>
     </row>
-    <row r="999" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -14510,7 +14515,7 @@
       <c r="K999" s="1"/>
       <c r="L999" s="1"/>
     </row>
-    <row r="1000" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
